--- a/SellCell.xlsx
+++ b/SellCell.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pi/Desktop/Mo (Chatbot)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DECC0A-03ED-054B-85A7-CD97F4924F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB904954-7C04-2744-B414-A0FD03FF19DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16060" activeTab="2" xr2:uid="{43297668-4323-B649-AE99-950DE315607D}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16060" activeTab="3" xr2:uid="{43297668-4323-B649-AE99-950DE315607D}"/>
   </bookViews>
   <sheets>
     <sheet name="Samsung" sheetId="1" r:id="rId1"/>
     <sheet name="Apple" sheetId="2" r:id="rId2"/>
     <sheet name="Google" sheetId="3" r:id="rId3"/>
+    <sheet name="Motorola" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="264">
   <si>
     <t>Device</t>
   </si>
@@ -785,6 +786,51 @@
   </si>
   <si>
     <t>Pixel 2 XL 64GB</t>
+  </si>
+  <si>
+    <t>Razr+ (2024) 256GB</t>
+  </si>
+  <si>
+    <t>Razr (2024) 256GB</t>
+  </si>
+  <si>
+    <t>Razr+ (2023) 256GB</t>
+  </si>
+  <si>
+    <t>Razr (2023) 128GB</t>
+  </si>
+  <si>
+    <t>Edge+ 256GB</t>
+  </si>
+  <si>
+    <t>Edge 128GB</t>
+  </si>
+  <si>
+    <t>Razr 5G 256GB</t>
+  </si>
+  <si>
+    <t>Moto Z4 128GB</t>
+  </si>
+  <si>
+    <t>One 5G 128GB</t>
+  </si>
+  <si>
+    <t>Moto G7 64GB</t>
+  </si>
+  <si>
+    <t>Razr (2019) 128GB</t>
+  </si>
+  <si>
+    <t>One Hyper 128GB</t>
+  </si>
+  <si>
+    <t>One Zoom 128GB</t>
+  </si>
+  <si>
+    <t>Moto G6 32GB</t>
+  </si>
+  <si>
+    <t>Moto Z3 64GB</t>
   </si>
 </sst>
 </file>
@@ -840,13 +886,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1184,11 +1231,12 @@
   <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R73" sqref="R73"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
+    <col min="1" max="1" width="32.83203125" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -1280,7 +1328,7 @@
         <v>1299.99</v>
       </c>
       <c r="D3" s="4">
-        <v>541</v>
+        <v>471</v>
       </c>
       <c r="E3" s="4">
         <v>758.99</v>
@@ -1289,7 +1337,7 @@
         <v>0.58399999999999996</v>
       </c>
       <c r="G3" s="4">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="H3" s="4">
         <v>798.99</v>
@@ -1298,7 +1346,7 @@
         <v>0.61499999999999999</v>
       </c>
       <c r="J3" s="4">
-        <v>406</v>
+        <v>351</v>
       </c>
       <c r="K3" s="4">
         <v>893.99</v>
@@ -1307,7 +1355,7 @@
         <v>0.68799999999999994</v>
       </c>
       <c r="M3" s="4">
-        <v>270</v>
+        <v>181</v>
       </c>
       <c r="N3" s="4">
         <v>1029.99</v>
@@ -1327,7 +1375,7 @@
         <v>1419.99</v>
       </c>
       <c r="D4" s="4">
-        <v>561</v>
+        <v>520</v>
       </c>
       <c r="E4" s="4">
         <v>858.99</v>
@@ -1336,7 +1384,7 @@
         <v>0.60499999999999998</v>
       </c>
       <c r="G4" s="4">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="H4" s="4">
         <v>898.99</v>
@@ -1345,7 +1393,7 @@
         <v>0.63300000000000001</v>
       </c>
       <c r="J4" s="4">
-        <v>426</v>
+        <v>371</v>
       </c>
       <c r="K4" s="4">
         <v>993.99</v>
@@ -1354,7 +1402,7 @@
         <v>0.7</v>
       </c>
       <c r="M4" s="4">
-        <v>270</v>
+        <v>181</v>
       </c>
       <c r="N4" s="4">
         <v>1149.99</v>
@@ -1365,16 +1413,16 @@
     </row>
     <row r="5" spans="1:15" ht="17">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3">
         <v>2024</v>
       </c>
       <c r="C5" s="4">
-        <v>1659.99</v>
+        <v>1119.99</v>
       </c>
       <c r="D5" s="4">
-        <v>641</v>
+        <v>401</v>
       </c>
       <c r="E5" s="4">
         <v>1018.99</v>
@@ -1383,7 +1431,7 @@
         <v>0.61399999999999999</v>
       </c>
       <c r="G5" s="4">
-        <v>601</v>
+        <v>365</v>
       </c>
       <c r="H5" s="4">
         <v>1058.99</v>
@@ -1392,7 +1440,7 @@
         <v>0.63800000000000001</v>
       </c>
       <c r="J5" s="4">
-        <v>506</v>
+        <v>291</v>
       </c>
       <c r="K5" s="4">
         <v>1153.99</v>
@@ -1401,7 +1449,7 @@
         <v>0.69499999999999995</v>
       </c>
       <c r="M5" s="4">
-        <v>280</v>
+        <v>115</v>
       </c>
       <c r="N5" s="4">
         <v>1379.99</v>
@@ -1421,7 +1469,7 @@
         <v>999.99</v>
       </c>
       <c r="D6" s="4">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="E6" s="4">
         <v>628.99</v>
@@ -1430,7 +1478,7 @@
         <v>0.629</v>
       </c>
       <c r="G6" s="4">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="H6" s="4">
         <v>663.99</v>
@@ -1439,7 +1487,7 @@
         <v>0.66400000000000003</v>
       </c>
       <c r="J6" s="4">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="K6" s="4">
         <v>733.99</v>
@@ -1448,7 +1496,7 @@
         <v>0.73399999999999999</v>
       </c>
       <c r="M6" s="4">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="N6" s="4">
         <v>819.99</v>
@@ -1459,16 +1507,16 @@
     </row>
     <row r="7" spans="1:15" ht="17">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3">
         <v>2024</v>
       </c>
       <c r="C7" s="4">
-        <v>1119.99</v>
+        <v>859.99</v>
       </c>
       <c r="D7" s="4">
-        <v>416</v>
+        <v>296</v>
       </c>
       <c r="E7" s="4">
         <v>703.99</v>
@@ -1477,7 +1525,7 @@
         <v>0.629</v>
       </c>
       <c r="G7" s="4">
-        <v>376</v>
+        <v>265</v>
       </c>
       <c r="H7" s="4">
         <v>743.99</v>
@@ -1486,7 +1534,7 @@
         <v>0.66400000000000003</v>
       </c>
       <c r="J7" s="4">
-        <v>316</v>
+        <v>216</v>
       </c>
       <c r="K7" s="4">
         <v>803.99</v>
@@ -1495,7 +1543,7 @@
         <v>0.71799999999999997</v>
       </c>
       <c r="M7" s="4">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="N7" s="4">
         <v>919.99</v>
@@ -1506,16 +1554,16 @@
     </row>
     <row r="8" spans="1:15" ht="17">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3">
         <v>2024</v>
       </c>
       <c r="C8" s="4">
-        <v>859.99</v>
+        <v>1659.99</v>
       </c>
       <c r="D8" s="4">
-        <v>316</v>
+        <v>561</v>
       </c>
       <c r="E8" s="4">
         <v>543.99</v>
@@ -1524,7 +1572,7 @@
         <v>0.63300000000000001</v>
       </c>
       <c r="G8" s="4">
-        <v>285</v>
+        <v>510</v>
       </c>
       <c r="H8" s="4">
         <v>574.99</v>
@@ -1533,7 +1581,7 @@
         <v>0.66900000000000004</v>
       </c>
       <c r="J8" s="4">
-        <v>216</v>
+        <v>431</v>
       </c>
       <c r="K8" s="4">
         <v>643.99</v>
@@ -1542,7 +1590,7 @@
         <v>0.749</v>
       </c>
       <c r="M8" s="4">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="N8" s="4">
         <v>699.99</v>
@@ -1562,7 +1610,7 @@
         <v>799.99</v>
       </c>
       <c r="D9" s="4">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="E9" s="4">
         <v>514.99</v>
@@ -1571,7 +1619,7 @@
         <v>0.64400000000000002</v>
       </c>
       <c r="G9" s="4">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="H9" s="4">
         <v>546.99</v>
@@ -1589,7 +1637,7 @@
         <v>0.76700000000000002</v>
       </c>
       <c r="M9" s="4">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="N9" s="4">
         <v>629.99</v>
@@ -1600,16 +1648,16 @@
     </row>
     <row r="10" spans="1:15" ht="17">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3">
         <v>2024</v>
       </c>
       <c r="C10" s="4">
-        <v>1899.99</v>
+        <v>2019.99</v>
       </c>
       <c r="D10" s="4">
-        <v>565</v>
+        <v>600</v>
       </c>
       <c r="E10" s="4">
         <v>1334.99</v>
@@ -1618,7 +1666,7 @@
         <v>0.70299999999999996</v>
       </c>
       <c r="G10" s="4">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="H10" s="4">
         <v>1334.99</v>
@@ -1627,7 +1675,7 @@
         <v>0.70299999999999996</v>
       </c>
       <c r="J10" s="4">
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="K10" s="4">
         <v>1469.99</v>
@@ -1636,7 +1684,7 @@
         <v>0.77400000000000002</v>
       </c>
       <c r="M10" s="4">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="N10" s="4">
         <v>1669.99</v>
@@ -1647,16 +1695,16 @@
     </row>
     <row r="11" spans="1:15" ht="17">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="3">
         <v>2024</v>
       </c>
       <c r="C11" s="4">
-        <v>2019.99</v>
+        <v>1899.99</v>
       </c>
       <c r="D11" s="4">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="E11" s="4">
         <v>1419.99</v>
@@ -1665,7 +1713,7 @@
         <v>0.70299999999999996</v>
       </c>
       <c r="G11" s="4">
-        <v>600</v>
+        <v>525</v>
       </c>
       <c r="H11" s="4">
         <v>1419.99</v>
@@ -1674,7 +1722,7 @@
         <v>0.70299999999999996</v>
       </c>
       <c r="J11" s="4">
-        <v>470</v>
+        <v>430</v>
       </c>
       <c r="K11" s="4">
         <v>1549.99</v>
@@ -1683,7 +1731,7 @@
         <v>0.76700000000000002</v>
       </c>
       <c r="M11" s="4">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="N11" s="4">
         <v>1779.99</v>
@@ -1694,16 +1742,16 @@
     </row>
     <row r="12" spans="1:15" ht="17">
       <c r="A12" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C12" s="4">
-        <v>2259.9899999999998</v>
+        <v>1199.99</v>
       </c>
       <c r="D12" s="4">
-        <v>630</v>
+        <v>371</v>
       </c>
       <c r="E12" s="4">
         <v>1629.99</v>
@@ -1712,7 +1760,7 @@
         <v>0.72099999999999997</v>
       </c>
       <c r="G12" s="4">
-        <v>625</v>
+        <v>330</v>
       </c>
       <c r="H12" s="4">
         <v>1634.99</v>
@@ -1721,7 +1769,7 @@
         <v>0.72299999999999998</v>
       </c>
       <c r="J12" s="4">
-        <v>500</v>
+        <v>270</v>
       </c>
       <c r="K12" s="4">
         <v>1759.99</v>
@@ -1730,7 +1778,7 @@
         <v>0.77900000000000003</v>
       </c>
       <c r="M12" s="4">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="N12" s="4">
         <v>1999.99</v>
@@ -1750,7 +1798,7 @@
         <v>1099.99</v>
       </c>
       <c r="D13" s="4">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="E13" s="4">
         <v>738.99</v>
@@ -1759,7 +1807,7 @@
         <v>0.67200000000000004</v>
       </c>
       <c r="G13" s="4">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="H13" s="4">
         <v>789.99</v>
@@ -1768,7 +1816,7 @@
         <v>0.71799999999999997</v>
       </c>
       <c r="J13" s="4">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="K13" s="4">
         <v>823.99</v>
@@ -1777,7 +1825,7 @@
         <v>0.749</v>
       </c>
       <c r="M13" s="4">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="N13" s="4">
         <v>959.99</v>
@@ -1797,7 +1845,7 @@
         <v>1219.99</v>
       </c>
       <c r="D14" s="4">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="E14" s="4">
         <v>838.99</v>
@@ -1806,7 +1854,7 @@
         <v>0.68799999999999994</v>
       </c>
       <c r="G14" s="4">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H14" s="4">
         <v>888.99</v>
@@ -1815,7 +1863,7 @@
         <v>0.72899999999999998</v>
       </c>
       <c r="J14" s="4">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="K14" s="4">
         <v>928.99</v>
@@ -1824,7 +1872,7 @@
         <v>0.76100000000000001</v>
       </c>
       <c r="M14" s="4">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="N14" s="4">
         <v>1069.99</v>
@@ -1835,16 +1883,16 @@
     </row>
     <row r="15" spans="1:15" ht="17">
       <c r="A15" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B15" s="3">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C15" s="4">
-        <v>1199.99</v>
+        <v>2259.9899999999998</v>
       </c>
       <c r="D15" s="4">
-        <v>386</v>
+        <v>630</v>
       </c>
       <c r="E15" s="4">
         <v>813.99</v>
@@ -1853,7 +1901,7 @@
         <v>0.67800000000000005</v>
       </c>
       <c r="G15" s="4">
-        <v>345</v>
+        <v>585</v>
       </c>
       <c r="H15" s="4">
         <v>854.99</v>
@@ -1862,7 +1910,7 @@
         <v>0.71199999999999997</v>
       </c>
       <c r="J15" s="4">
-        <v>281</v>
+        <v>500</v>
       </c>
       <c r="K15" s="4">
         <v>918.99</v>
@@ -1871,7 +1919,7 @@
         <v>0.76600000000000001</v>
       </c>
       <c r="M15" s="4">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="N15" s="4">
         <v>1019.99</v>
@@ -1882,16 +1930,16 @@
     </row>
     <row r="16" spans="1:15" ht="17">
       <c r="A16" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" s="3">
         <v>2023</v>
       </c>
       <c r="C16" s="4">
-        <v>859.99</v>
+        <v>1379.99</v>
       </c>
       <c r="D16" s="4">
-        <v>269</v>
+        <v>391</v>
       </c>
       <c r="E16" s="4">
         <v>590.99</v>
@@ -1900,7 +1948,7 @@
         <v>0.68700000000000006</v>
       </c>
       <c r="G16" s="4">
-        <v>247</v>
+        <v>350</v>
       </c>
       <c r="H16" s="4">
         <v>612.99</v>
@@ -1909,7 +1957,7 @@
         <v>0.71299999999999997</v>
       </c>
       <c r="J16" s="4">
-        <v>181</v>
+        <v>290</v>
       </c>
       <c r="K16" s="4">
         <v>678.99</v>
@@ -1918,7 +1966,7 @@
         <v>0.79</v>
       </c>
       <c r="M16" s="4">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="N16" s="4">
         <v>769.99</v>
@@ -1929,16 +1977,16 @@
     </row>
     <row r="17" spans="1:15" ht="17">
       <c r="A17" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B17" s="3">
         <v>2023</v>
       </c>
       <c r="C17" s="4">
-        <v>1379.99</v>
+        <v>1119.99</v>
       </c>
       <c r="D17" s="4">
-        <v>406</v>
+        <v>305</v>
       </c>
       <c r="E17" s="4">
         <v>973.99</v>
@@ -1947,7 +1995,7 @@
         <v>0.70599999999999996</v>
       </c>
       <c r="G17" s="4">
-        <v>365</v>
+        <v>275</v>
       </c>
       <c r="H17" s="4">
         <v>1014.99</v>
@@ -1956,7 +2004,7 @@
         <v>0.73599999999999999</v>
       </c>
       <c r="J17" s="4">
-        <v>301</v>
+        <v>190</v>
       </c>
       <c r="K17" s="4">
         <v>1078.99</v>
@@ -1965,7 +2013,7 @@
         <v>0.78200000000000003</v>
       </c>
       <c r="M17" s="4">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="N17" s="4">
         <v>1189.99</v>
@@ -1976,16 +2024,16 @@
     </row>
     <row r="18" spans="1:15" ht="17">
       <c r="A18" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B18" s="3">
         <v>2023</v>
       </c>
       <c r="C18" s="4">
-        <v>799.99</v>
+        <v>1619.99</v>
       </c>
       <c r="D18" s="4">
-        <v>231</v>
+        <v>431</v>
       </c>
       <c r="E18" s="4">
         <v>568.99</v>
@@ -1994,7 +2042,7 @@
         <v>0.71099999999999997</v>
       </c>
       <c r="G18" s="4">
-        <v>210</v>
+        <v>390</v>
       </c>
       <c r="H18" s="4">
         <v>589.99</v>
@@ -2003,7 +2051,7 @@
         <v>0.73699999999999999</v>
       </c>
       <c r="J18" s="4">
-        <v>146</v>
+        <v>330</v>
       </c>
       <c r="K18" s="4">
         <v>653.99</v>
@@ -2012,7 +2060,7 @@
         <v>0.81699999999999995</v>
       </c>
       <c r="M18" s="4">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="N18" s="4">
         <v>709.99</v>
@@ -2023,16 +2071,16 @@
     </row>
     <row r="19" spans="1:15" ht="17">
       <c r="A19" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" s="3">
         <v>2023</v>
       </c>
       <c r="C19" s="4">
-        <v>1119.99</v>
+        <v>999.99</v>
       </c>
       <c r="D19" s="4">
-        <v>320</v>
+        <v>262</v>
       </c>
       <c r="E19" s="4">
         <v>799.99</v>
@@ -2041,7 +2089,7 @@
         <v>0.71399999999999997</v>
       </c>
       <c r="G19" s="4">
-        <v>290</v>
+        <v>238</v>
       </c>
       <c r="H19" s="4">
         <v>829.99</v>
@@ -2050,7 +2098,7 @@
         <v>0.74099999999999999</v>
       </c>
       <c r="J19" s="4">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="K19" s="4">
         <v>928.99</v>
@@ -2059,7 +2107,7 @@
         <v>0.82899999999999996</v>
       </c>
       <c r="M19" s="4">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N19" s="4">
         <v>1019.99</v>
@@ -2070,16 +2118,16 @@
     </row>
     <row r="20" spans="1:15" ht="17">
       <c r="A20" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" s="3">
         <v>2023</v>
       </c>
       <c r="C20" s="4">
-        <v>999.99</v>
+        <v>1119.99</v>
       </c>
       <c r="D20" s="4">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="E20" s="4">
         <v>720.99</v>
@@ -2088,7 +2136,7 @@
         <v>0.72099999999999997</v>
       </c>
       <c r="G20" s="4">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H20" s="4">
         <v>742.99</v>
@@ -2097,7 +2145,7 @@
         <v>0.74299999999999999</v>
       </c>
       <c r="J20" s="4">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="K20" s="4">
         <v>843.99</v>
@@ -2106,7 +2154,7 @@
         <v>0.84399999999999997</v>
       </c>
       <c r="M20" s="4">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="N20" s="4">
         <v>879.99</v>
@@ -2117,16 +2165,16 @@
     </row>
     <row r="21" spans="1:15" ht="17">
       <c r="A21" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B21" s="3">
         <v>2023</v>
       </c>
       <c r="C21" s="4">
-        <v>1119.99</v>
+        <v>859.99</v>
       </c>
       <c r="D21" s="4">
-        <v>306</v>
+        <v>230</v>
       </c>
       <c r="E21" s="4">
         <v>813.99</v>
@@ -2135,7 +2183,7 @@
         <v>0.72699999999999998</v>
       </c>
       <c r="G21" s="4">
-        <v>284</v>
+        <v>191</v>
       </c>
       <c r="H21" s="4">
         <v>835.99</v>
@@ -2144,7 +2192,7 @@
         <v>0.746</v>
       </c>
       <c r="J21" s="4">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="K21" s="4">
         <v>938.99</v>
@@ -2153,7 +2201,7 @@
         <v>0.83799999999999997</v>
       </c>
       <c r="M21" s="4">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="N21" s="4">
         <v>959.99</v>
@@ -2164,16 +2212,16 @@
     </row>
     <row r="22" spans="1:15" ht="17">
       <c r="A22" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B22" s="3">
         <v>2023</v>
       </c>
       <c r="C22" s="4">
-        <v>1619.99</v>
+        <v>799.99</v>
       </c>
       <c r="D22" s="4">
-        <v>446</v>
+        <v>206</v>
       </c>
       <c r="E22" s="4">
         <v>1173.99</v>
@@ -2182,7 +2230,7 @@
         <v>0.72499999999999998</v>
       </c>
       <c r="G22" s="4">
-        <v>405</v>
+        <v>175</v>
       </c>
       <c r="H22" s="4">
         <v>1214.99</v>
@@ -2191,7 +2239,7 @@
         <v>0.75</v>
       </c>
       <c r="J22" s="4">
-        <v>340</v>
+        <v>141</v>
       </c>
       <c r="K22" s="4">
         <v>1279.99</v>
@@ -2200,7 +2248,7 @@
         <v>0.79</v>
       </c>
       <c r="M22" s="4">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="N22" s="4">
         <v>1419.99</v>
@@ -2211,16 +2259,16 @@
     </row>
     <row r="23" spans="1:15" ht="17">
       <c r="A23" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" s="3">
         <v>2023</v>
       </c>
       <c r="C23" s="4">
-        <v>999.99</v>
+        <v>1919.99</v>
       </c>
       <c r="D23" s="4">
-        <v>275</v>
+        <v>475</v>
       </c>
       <c r="E23" s="4">
         <v>724.99</v>
@@ -2229,7 +2277,7 @@
         <v>0.72499999999999998</v>
       </c>
       <c r="G23" s="4">
-        <v>240</v>
+        <v>417</v>
       </c>
       <c r="H23" s="4">
         <v>759.99</v>
@@ -2238,7 +2286,7 @@
         <v>0.76</v>
       </c>
       <c r="J23" s="4">
-        <v>164</v>
+        <v>360</v>
       </c>
       <c r="K23" s="4">
         <v>835.99</v>
@@ -2247,7 +2295,7 @@
         <v>0.83599999999999997</v>
       </c>
       <c r="M23" s="4">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="N23" s="4">
         <v>919.99</v>
@@ -2258,16 +2306,16 @@
     </row>
     <row r="24" spans="1:15" ht="17">
       <c r="A24" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="3">
         <v>2023</v>
       </c>
       <c r="C24" s="4">
-        <v>1919.99</v>
+        <v>999.99</v>
       </c>
       <c r="D24" s="4">
-        <v>505</v>
+        <v>245</v>
       </c>
       <c r="E24" s="4">
         <v>1414.99</v>
@@ -2276,7 +2324,7 @@
         <v>0.73699999999999999</v>
       </c>
       <c r="G24" s="4">
-        <v>450</v>
+        <v>215</v>
       </c>
       <c r="H24" s="4">
         <v>1469.99</v>
@@ -2285,7 +2333,7 @@
         <v>0.76600000000000001</v>
       </c>
       <c r="J24" s="4">
-        <v>385</v>
+        <v>163</v>
       </c>
       <c r="K24" s="4">
         <v>1534.99</v>
@@ -2294,7 +2342,7 @@
         <v>0.79900000000000004</v>
       </c>
       <c r="M24" s="4">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="N24" s="4">
         <v>1619.99</v>
@@ -2314,7 +2362,7 @@
         <v>1799.99</v>
       </c>
       <c r="D25" s="4">
-        <v>470</v>
+        <v>435</v>
       </c>
       <c r="E25" s="4">
         <v>1329.99</v>
@@ -2323,7 +2371,7 @@
         <v>0.73899999999999999</v>
       </c>
       <c r="G25" s="4">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="H25" s="4">
         <v>1379.99</v>
@@ -2332,7 +2380,7 @@
         <v>0.76700000000000002</v>
       </c>
       <c r="J25" s="4">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="K25" s="4">
         <v>1444.99</v>
@@ -2341,7 +2389,7 @@
         <v>0.80300000000000005</v>
       </c>
       <c r="M25" s="4">
-        <v>250</v>
+        <v>105</v>
       </c>
       <c r="N25" s="4">
         <v>1549.99</v>
@@ -2361,7 +2409,7 @@
         <v>2159.9899999999998</v>
       </c>
       <c r="D26" s="4">
-        <v>535</v>
+        <v>505</v>
       </c>
       <c r="E26" s="4">
         <v>1624.99</v>
@@ -2370,7 +2418,7 @@
         <v>0.752</v>
       </c>
       <c r="G26" s="4">
-        <v>475</v>
+        <v>445</v>
       </c>
       <c r="H26" s="4">
         <v>1684.99</v>
@@ -2379,7 +2427,7 @@
         <v>0.78</v>
       </c>
       <c r="J26" s="4">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="K26" s="4">
         <v>1754.99</v>
@@ -2388,7 +2436,7 @@
         <v>0.81200000000000006</v>
       </c>
       <c r="M26" s="4">
-        <v>350</v>
+        <v>135</v>
       </c>
       <c r="N26" s="4">
         <v>1809.99</v>
@@ -2399,16 +2447,16 @@
     </row>
     <row r="27" spans="1:15" ht="17">
       <c r="A27" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B27" s="3">
         <v>2022</v>
       </c>
       <c r="C27" s="4">
-        <v>1299.99</v>
+        <v>1599.99</v>
       </c>
       <c r="D27" s="4">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E27" s="4">
         <v>1009.99</v>
@@ -2417,7 +2465,7 @@
         <v>0.77700000000000002</v>
       </c>
       <c r="G27" s="4">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="H27" s="4">
         <v>1030.99</v>
@@ -2426,7 +2474,7 @@
         <v>0.79300000000000004</v>
       </c>
       <c r="J27" s="4">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="K27" s="4">
         <v>1104.99</v>
@@ -2435,7 +2483,7 @@
         <v>0.85</v>
       </c>
       <c r="M27" s="4">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="N27" s="4">
         <v>1199.99</v>
@@ -2446,16 +2494,16 @@
     </row>
     <row r="28" spans="1:15" ht="17">
       <c r="A28" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B28" s="3">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="C28" s="4">
-        <v>1199.99</v>
+        <v>1449</v>
       </c>
       <c r="D28" s="4">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="E28" s="4">
         <v>935.99</v>
@@ -2464,7 +2512,7 @@
         <v>0.78</v>
       </c>
       <c r="G28" s="4">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H28" s="4">
         <v>957.99</v>
@@ -2473,7 +2521,7 @@
         <v>0.79800000000000004</v>
       </c>
       <c r="J28" s="4">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="K28" s="4">
         <v>1028.99</v>
@@ -2482,7 +2530,7 @@
         <v>0.85699999999999998</v>
       </c>
       <c r="M28" s="4">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="N28" s="4">
         <v>1099.99</v>
@@ -2493,16 +2541,16 @@
     </row>
     <row r="29" spans="1:15" ht="17">
       <c r="A29" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B29" s="3">
         <v>2022</v>
       </c>
       <c r="C29" s="4">
-        <v>1399.99</v>
+        <v>1299.99</v>
       </c>
       <c r="D29" s="4">
-        <v>295</v>
+        <v>230</v>
       </c>
       <c r="E29" s="4">
         <v>1104.99</v>
@@ -2511,7 +2559,7 @@
         <v>0.78900000000000003</v>
       </c>
       <c r="G29" s="4">
-        <v>274</v>
+        <v>210</v>
       </c>
       <c r="H29" s="4">
         <v>1125.99</v>
@@ -2520,7 +2568,7 @@
         <v>0.80400000000000005</v>
       </c>
       <c r="J29" s="4">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="K29" s="4">
         <v>1199.99</v>
@@ -2529,7 +2577,7 @@
         <v>0.85699999999999998</v>
       </c>
       <c r="M29" s="4">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="N29" s="4">
         <v>1269.99</v>
@@ -2540,16 +2588,16 @@
     </row>
     <row r="30" spans="1:15" ht="17">
       <c r="A30" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B30" s="3">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="C30" s="4">
-        <v>1599.99</v>
+        <v>1299</v>
       </c>
       <c r="D30" s="4">
-        <v>316</v>
+        <v>223</v>
       </c>
       <c r="E30" s="4">
         <v>1283.99</v>
@@ -2558,7 +2606,7 @@
         <v>0.80200000000000005</v>
       </c>
       <c r="G30" s="4">
-        <v>295</v>
+        <v>207</v>
       </c>
       <c r="H30" s="4">
         <v>1304.99</v>
@@ -2567,7 +2615,7 @@
         <v>0.81599999999999995</v>
       </c>
       <c r="J30" s="4">
-        <v>220</v>
+        <v>161</v>
       </c>
       <c r="K30" s="4">
         <v>1379.99</v>
@@ -2576,7 +2624,7 @@
         <v>0.86199999999999999</v>
       </c>
       <c r="M30" s="4">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="N30" s="4">
         <v>1459.99</v>
@@ -2587,16 +2635,16 @@
     </row>
     <row r="31" spans="1:15" ht="17">
       <c r="A31" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B31" s="3">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C31" s="4">
-        <v>1449</v>
+        <v>1919.99</v>
       </c>
       <c r="D31" s="4">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="E31" s="4">
         <v>1155</v>
@@ -2605,7 +2653,7 @@
         <v>0.79700000000000004</v>
       </c>
       <c r="G31" s="4">
-        <v>257</v>
+        <v>300</v>
       </c>
       <c r="H31" s="4">
         <v>1192</v>
@@ -2614,7 +2662,7 @@
         <v>0.82299999999999995</v>
       </c>
       <c r="J31" s="4">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="K31" s="4">
         <v>1269</v>
@@ -2623,7 +2671,7 @@
         <v>0.876</v>
       </c>
       <c r="M31" s="4">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="N31" s="4">
         <v>1359</v>
@@ -2634,16 +2682,16 @@
     </row>
     <row r="32" spans="1:15" ht="17">
       <c r="A32" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" s="3">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C32" s="4">
-        <v>1299</v>
+        <v>1799.99</v>
       </c>
       <c r="D32" s="4">
-        <v>269</v>
+        <v>316</v>
       </c>
       <c r="E32" s="4">
         <v>1030</v>
@@ -2652,7 +2700,7 @@
         <v>0.79300000000000004</v>
       </c>
       <c r="G32" s="4">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="H32" s="4">
         <v>1071</v>
@@ -2661,7 +2709,7 @@
         <v>0.82399999999999995</v>
       </c>
       <c r="J32" s="4">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="K32" s="4">
         <v>1139</v>
@@ -2670,7 +2718,7 @@
         <v>0.877</v>
       </c>
       <c r="M32" s="4">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="N32" s="4">
         <v>1219</v>
@@ -2681,16 +2729,16 @@
     </row>
     <row r="33" spans="1:15" ht="17">
       <c r="A33" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B33" s="3">
         <v>2022</v>
       </c>
       <c r="C33" s="4">
-        <v>1799.99</v>
+        <v>1199.99</v>
       </c>
       <c r="D33" s="4">
-        <v>356</v>
+        <v>201</v>
       </c>
       <c r="E33" s="4">
         <v>1443.99</v>
@@ -2699,7 +2747,7 @@
         <v>0.80200000000000005</v>
       </c>
       <c r="G33" s="4">
-        <v>315</v>
+        <v>179</v>
       </c>
       <c r="H33" s="4">
         <v>1484.99</v>
@@ -2708,7 +2756,7 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="J33" s="4">
-        <v>270</v>
+        <v>131</v>
       </c>
       <c r="K33" s="4">
         <v>1529.99</v>
@@ -2717,7 +2765,7 @@
         <v>0.85</v>
       </c>
       <c r="M33" s="4">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="N33" s="4">
         <v>1699.99</v>
@@ -2728,16 +2776,16 @@
     </row>
     <row r="34" spans="1:15" ht="17">
       <c r="A34" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B34" s="3">
         <v>2022</v>
       </c>
       <c r="C34" s="4">
-        <v>1919.99</v>
+        <v>1399.99</v>
       </c>
       <c r="D34" s="4">
-        <v>376</v>
+        <v>230</v>
       </c>
       <c r="E34" s="4">
         <v>1543.99</v>
@@ -2746,7 +2794,7 @@
         <v>0.80400000000000005</v>
       </c>
       <c r="G34" s="4">
-        <v>335</v>
+        <v>207</v>
       </c>
       <c r="H34" s="4">
         <v>1584.99</v>
@@ -2755,7 +2803,7 @@
         <v>0.82599999999999996</v>
       </c>
       <c r="J34" s="4">
-        <v>290</v>
+        <v>151</v>
       </c>
       <c r="K34" s="4">
         <v>1629.99</v>
@@ -2764,7 +2812,7 @@
         <v>0.84899999999999998</v>
       </c>
       <c r="M34" s="4">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="N34" s="4">
         <v>1819.99</v>
@@ -2775,16 +2823,16 @@
     </row>
     <row r="35" spans="1:15" ht="17">
       <c r="A35" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" s="3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C35" s="4">
-        <v>1379</v>
+        <v>2159.9899999999998</v>
       </c>
       <c r="D35" s="4">
-        <v>245</v>
+        <v>366</v>
       </c>
       <c r="E35" s="4">
         <v>1134</v>
@@ -2793,7 +2841,7 @@
         <v>0.82199999999999995</v>
       </c>
       <c r="G35" s="4">
-        <v>230</v>
+        <v>320</v>
       </c>
       <c r="H35" s="4">
         <v>1149</v>
@@ -2802,7 +2850,7 @@
         <v>0.83299999999999996</v>
       </c>
       <c r="J35" s="4">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="K35" s="4">
         <v>1229</v>
@@ -2811,7 +2859,7 @@
         <v>0.89100000000000001</v>
       </c>
       <c r="M35" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N35" s="4">
         <v>1319</v>
@@ -2822,16 +2870,16 @@
     </row>
     <row r="36" spans="1:15" ht="17">
       <c r="A36" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B36" s="3">
         <v>2022</v>
       </c>
       <c r="C36" s="4">
-        <v>2159.9899999999998</v>
+        <v>849.99</v>
       </c>
       <c r="D36" s="4">
-        <v>391</v>
+        <v>136</v>
       </c>
       <c r="E36" s="4">
         <v>1768.99</v>
@@ -2840,7 +2888,7 @@
         <v>0.81899999999999995</v>
       </c>
       <c r="G36" s="4">
-        <v>350</v>
+        <v>125</v>
       </c>
       <c r="H36" s="4">
         <v>1809.99</v>
@@ -2849,7 +2897,7 @@
         <v>0.83799999999999997</v>
       </c>
       <c r="J36" s="4">
-        <v>305</v>
+        <v>91</v>
       </c>
       <c r="K36" s="4">
         <v>1854.99</v>
@@ -2858,7 +2906,7 @@
         <v>0.85899999999999999</v>
       </c>
       <c r="M36" s="4">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="N36" s="4">
         <v>2079.9899999999998</v>
@@ -2869,16 +2917,16 @@
     </row>
     <row r="37" spans="1:15" ht="17">
       <c r="A37" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B37" s="3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C37" s="4">
-        <v>1249</v>
+        <v>1059.99</v>
       </c>
       <c r="D37" s="4">
-        <v>215</v>
+        <v>163</v>
       </c>
       <c r="E37" s="4">
         <v>1034</v>
@@ -2887,7 +2935,7 @@
         <v>0.82799999999999996</v>
       </c>
       <c r="G37" s="4">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="H37" s="4">
         <v>1049</v>
@@ -2896,7 +2944,7 @@
         <v>0.84</v>
       </c>
       <c r="J37" s="4">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="K37" s="4">
         <v>1109</v>
@@ -2905,7 +2953,7 @@
         <v>0.88800000000000001</v>
       </c>
       <c r="M37" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N37" s="4">
         <v>1199</v>
@@ -2916,16 +2964,16 @@
     </row>
     <row r="38" spans="1:15" ht="17">
       <c r="A38" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B38" s="3">
         <v>2021</v>
       </c>
       <c r="C38" s="4">
-        <v>1199</v>
+        <v>1379</v>
       </c>
       <c r="D38" s="4">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E38" s="4">
         <v>994</v>
@@ -2934,7 +2982,7 @@
         <v>0.82899999999999996</v>
       </c>
       <c r="G38" s="4">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H38" s="4">
         <v>1009</v>
@@ -2943,7 +2991,7 @@
         <v>0.84199999999999997</v>
       </c>
       <c r="J38" s="4">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="K38" s="4">
         <v>1083</v>
@@ -2952,7 +3000,7 @@
         <v>0.90300000000000002</v>
       </c>
       <c r="M38" s="4">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N38" s="4">
         <v>1159</v>
@@ -2963,16 +3011,16 @@
     </row>
     <row r="39" spans="1:15" ht="17">
       <c r="A39" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B39" s="3">
         <v>2022</v>
       </c>
       <c r="C39" s="4">
-        <v>1059.99</v>
+        <v>799.99</v>
       </c>
       <c r="D39" s="4">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="E39" s="4">
         <v>879.99</v>
@@ -2981,7 +3029,7 @@
         <v>0.83</v>
       </c>
       <c r="G39" s="4">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="H39" s="4">
         <v>894.99</v>
@@ -2990,7 +3038,7 @@
         <v>0.84399999999999997</v>
       </c>
       <c r="J39" s="4">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="K39" s="4">
         <v>953.99</v>
@@ -2999,7 +3047,7 @@
         <v>0.9</v>
       </c>
       <c r="M39" s="4">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N39" s="4">
         <v>1029.99</v>
@@ -3010,16 +3058,16 @@
     </row>
     <row r="40" spans="1:15" ht="17">
       <c r="A40" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B40" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C40" s="4">
-        <v>849.99</v>
+        <v>1899.99</v>
       </c>
       <c r="D40" s="4">
-        <v>146</v>
+        <v>245</v>
       </c>
       <c r="E40" s="4">
         <v>703.99</v>
@@ -3028,7 +3076,7 @@
         <v>0.82799999999999996</v>
       </c>
       <c r="G40" s="4">
-        <v>129</v>
+        <v>245</v>
       </c>
       <c r="H40" s="4">
         <v>720.99</v>
@@ -3037,7 +3085,7 @@
         <v>0.84799999999999998</v>
       </c>
       <c r="J40" s="4">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c r="K40" s="4">
         <v>753.99</v>
@@ -3046,7 +3094,7 @@
         <v>0.88700000000000001</v>
       </c>
       <c r="M40" s="4">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="N40" s="4">
         <v>799.99</v>
@@ -3057,16 +3105,16 @@
     </row>
     <row r="41" spans="1:15" ht="17">
       <c r="A41" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B41" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C41" s="4">
-        <v>999.99</v>
+        <v>1249</v>
       </c>
       <c r="D41" s="4">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E41" s="4">
         <v>829.99</v>
@@ -3075,7 +3123,7 @@
         <v>0.83</v>
       </c>
       <c r="G41" s="4">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="H41" s="4">
         <v>849.99</v>
@@ -3084,7 +3132,7 @@
         <v>0.85</v>
       </c>
       <c r="J41" s="4">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="K41" s="4">
         <v>913.99</v>
@@ -3093,7 +3141,7 @@
         <v>0.91400000000000003</v>
       </c>
       <c r="M41" s="4">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N41" s="4">
         <v>973.99</v>
@@ -3104,16 +3152,16 @@
     </row>
     <row r="42" spans="1:15" ht="17">
       <c r="A42" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B42" s="3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C42" s="4">
-        <v>999</v>
+        <v>1049.99</v>
       </c>
       <c r="D42" s="4">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E42" s="4">
         <v>844</v>
@@ -3122,7 +3170,7 @@
         <v>0.84499999999999997</v>
       </c>
       <c r="G42" s="4">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H42" s="4">
         <v>859</v>
@@ -3131,7 +3179,7 @@
         <v>0.86</v>
       </c>
       <c r="J42" s="4">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="K42" s="4">
         <v>924</v>
@@ -3140,7 +3188,7 @@
         <v>0.92500000000000004</v>
       </c>
       <c r="M42" s="4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N42" s="4">
         <v>969</v>
@@ -3151,16 +3199,16 @@
     </row>
     <row r="43" spans="1:15" ht="17">
       <c r="A43" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C43" s="4">
-        <v>999</v>
+        <v>999.99</v>
       </c>
       <c r="D43" s="4">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="E43" s="4">
         <v>836</v>
@@ -3169,7 +3217,7 @@
         <v>0.83699999999999997</v>
       </c>
       <c r="G43" s="4">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="H43" s="4">
         <v>861</v>
@@ -3178,7 +3226,7 @@
         <v>0.86199999999999999</v>
       </c>
       <c r="J43" s="4">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K43" s="4">
         <v>917</v>
@@ -3187,7 +3235,7 @@
         <v>0.91800000000000004</v>
       </c>
       <c r="M43" s="4">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N43" s="4">
         <v>964</v>
@@ -3198,16 +3246,16 @@
     </row>
     <row r="44" spans="1:15" ht="17">
       <c r="A44" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B44" s="3">
         <v>2021</v>
       </c>
       <c r="C44" s="4">
-        <v>1899.99</v>
+        <v>1199</v>
       </c>
       <c r="D44" s="4">
-        <v>270</v>
+        <v>165</v>
       </c>
       <c r="E44" s="4">
         <v>1629.99</v>
@@ -3216,7 +3264,7 @@
         <v>0.85799999999999998</v>
       </c>
       <c r="G44" s="4">
-        <v>260</v>
+        <v>145</v>
       </c>
       <c r="H44" s="4">
         <v>1639.99</v>
@@ -3225,7 +3273,7 @@
         <v>0.86299999999999999</v>
       </c>
       <c r="J44" s="4">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="K44" s="4">
         <v>1734.99</v>
@@ -3234,7 +3282,7 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="M44" s="4">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N44" s="4">
         <v>1839.99</v>
@@ -3245,16 +3293,16 @@
     </row>
     <row r="45" spans="1:15" ht="17">
       <c r="A45" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B45" s="3">
         <v>2022</v>
       </c>
       <c r="C45" s="4">
-        <v>799.99</v>
+        <v>999.99</v>
       </c>
       <c r="D45" s="4">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="E45" s="4">
         <v>674.99</v>
@@ -3263,7 +3311,7 @@
         <v>0.84399999999999997</v>
       </c>
       <c r="G45" s="4">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="H45" s="4">
         <v>691.99</v>
@@ -3272,7 +3320,7 @@
         <v>0.86499999999999999</v>
       </c>
       <c r="J45" s="4">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K45" s="4">
         <v>718.99</v>
@@ -3281,7 +3329,7 @@
         <v>0.89900000000000002</v>
       </c>
       <c r="M45" s="4">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N45" s="4">
         <v>754.99</v>
@@ -3301,7 +3349,7 @@
         <v>1799.99</v>
       </c>
       <c r="D46" s="4">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="E46" s="4">
         <v>1559.99</v>
@@ -3310,7 +3358,7 @@
         <v>0.86699999999999999</v>
       </c>
       <c r="G46" s="4">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="H46" s="4">
         <v>1569.99</v>
@@ -3328,7 +3376,7 @@
         <v>0.91700000000000004</v>
       </c>
       <c r="M46" s="4">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="N46" s="4">
         <v>1729.99</v>
@@ -3339,16 +3387,16 @@
     </row>
     <row r="47" spans="1:15" ht="17">
       <c r="A47" s="3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B47" s="3">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="C47" s="4">
-        <v>1049.99</v>
+        <v>1199</v>
       </c>
       <c r="D47" s="4">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E47" s="4">
         <v>887.99</v>
@@ -3357,7 +3405,7 @@
         <v>0.84599999999999997</v>
       </c>
       <c r="G47" s="4">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="H47" s="4">
         <v>917.99</v>
@@ -3366,7 +3414,7 @@
         <v>0.874</v>
       </c>
       <c r="J47" s="4">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="K47" s="4">
         <v>938.99</v>
@@ -3375,7 +3423,7 @@
         <v>0.89400000000000002</v>
       </c>
       <c r="M47" s="4">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N47" s="4">
         <v>1004.99</v>
@@ -3386,16 +3434,16 @@
     </row>
     <row r="48" spans="1:15" ht="17">
       <c r="A48" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B48" s="3">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C48" s="4">
-        <v>849</v>
+        <v>1049</v>
       </c>
       <c r="D48" s="4">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E48" s="4">
         <v>717</v>
@@ -3404,7 +3452,7 @@
         <v>0.84499999999999997</v>
       </c>
       <c r="G48" s="4">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H48" s="4">
         <v>743</v>
@@ -3413,7 +3461,7 @@
         <v>0.875</v>
       </c>
       <c r="J48" s="4">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K48" s="4">
         <v>786</v>
@@ -3422,7 +3470,7 @@
         <v>0.92600000000000005</v>
       </c>
       <c r="M48" s="4">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N48" s="4">
         <v>824</v>
@@ -3433,16 +3481,16 @@
     </row>
     <row r="49" spans="1:15" ht="17">
       <c r="A49" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B49" s="3">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C49" s="4">
-        <v>1049</v>
+        <v>1099</v>
       </c>
       <c r="D49" s="4">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E49" s="4">
         <v>909</v>
@@ -3451,7 +3499,7 @@
         <v>0.86699999999999999</v>
       </c>
       <c r="G49" s="4">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H49" s="4">
         <v>919</v>
@@ -3460,7 +3508,7 @@
         <v>0.876</v>
       </c>
       <c r="J49" s="4">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="K49" s="4">
         <v>964</v>
@@ -3469,7 +3517,7 @@
         <v>0.91900000000000004</v>
       </c>
       <c r="M49" s="4">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="N49" s="4">
         <v>1009</v>
@@ -3480,16 +3528,16 @@
     </row>
     <row r="50" spans="1:15" ht="17">
       <c r="A50" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B50" s="3">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="C50" s="4">
-        <v>999.99</v>
+        <v>949</v>
       </c>
       <c r="D50" s="4">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="E50" s="4">
         <v>847.99</v>
@@ -3498,7 +3546,7 @@
         <v>0.84799999999999998</v>
       </c>
       <c r="G50" s="4">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="H50" s="4">
         <v>879.99</v>
@@ -3507,7 +3555,7 @@
         <v>0.88</v>
       </c>
       <c r="J50" s="4">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="K50" s="4">
         <v>898.99</v>
@@ -3516,7 +3564,7 @@
         <v>0.89900000000000002</v>
       </c>
       <c r="M50" s="4">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="N50" s="4">
         <v>959.99</v>
@@ -3527,16 +3575,16 @@
     </row>
     <row r="51" spans="1:15" ht="17">
       <c r="A51" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B51" s="3">
         <v>2021</v>
       </c>
       <c r="C51" s="4">
-        <v>799</v>
+        <v>1049</v>
       </c>
       <c r="D51" s="4">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E51" s="4">
         <v>677</v>
@@ -3545,7 +3593,7 @@
         <v>0.84699999999999998</v>
       </c>
       <c r="G51" s="4">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="H51" s="4">
         <v>704</v>
@@ -3554,7 +3602,7 @@
         <v>0.88100000000000001</v>
       </c>
       <c r="J51" s="4">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="K51" s="4">
         <v>742</v>
@@ -3563,7 +3611,7 @@
         <v>0.92900000000000005</v>
       </c>
       <c r="M51" s="4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N51" s="4">
         <v>779</v>
@@ -3574,16 +3622,16 @@
     </row>
     <row r="52" spans="1:15" ht="17">
       <c r="A52" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B52" s="3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C52" s="4">
-        <v>949</v>
+        <v>999</v>
       </c>
       <c r="D52" s="4">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E52" s="4">
         <v>825</v>
@@ -3592,7 +3640,7 @@
         <v>0.86899999999999999</v>
       </c>
       <c r="G52" s="4">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H52" s="4">
         <v>836</v>
@@ -3601,7 +3649,7 @@
         <v>0.88100000000000001</v>
       </c>
       <c r="J52" s="4">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="K52" s="4">
         <v>881</v>
@@ -3610,7 +3658,7 @@
         <v>0.92800000000000005</v>
       </c>
       <c r="M52" s="4">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N52" s="4">
         <v>927</v>
@@ -3630,7 +3678,7 @@
         <v>1399</v>
       </c>
       <c r="D53" s="4">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="E53" s="4">
         <v>1207</v>
@@ -3639,7 +3687,7 @@
         <v>0.86299999999999999</v>
       </c>
       <c r="G53" s="4">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="H53" s="4">
         <v>1236</v>
@@ -3648,7 +3696,7 @@
         <v>0.88300000000000001</v>
       </c>
       <c r="J53" s="4">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K53" s="4">
         <v>1295</v>
@@ -3657,7 +3705,7 @@
         <v>0.92600000000000005</v>
       </c>
       <c r="M53" s="4">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N53" s="4">
         <v>1354</v>
@@ -3668,16 +3716,16 @@
     </row>
     <row r="54" spans="1:15" ht="17">
       <c r="A54" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B54" s="3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C54" s="4">
-        <v>1199</v>
+        <v>1599</v>
       </c>
       <c r="D54" s="4">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="E54" s="4">
         <v>1038</v>
@@ -3686,7 +3734,7 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="G54" s="4">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="H54" s="4">
         <v>1059</v>
@@ -3695,7 +3743,7 @@
         <v>0.88300000000000001</v>
       </c>
       <c r="J54" s="4">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="K54" s="4">
         <v>1118</v>
@@ -3704,7 +3752,7 @@
         <v>0.93200000000000005</v>
       </c>
       <c r="M54" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N54" s="4">
         <v>1169</v>
@@ -3715,16 +3763,16 @@
     </row>
     <row r="55" spans="1:15" ht="17">
       <c r="A55" s="3" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B55" s="3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C55" s="4">
-        <v>1599</v>
+        <v>999</v>
       </c>
       <c r="D55" s="4">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="E55" s="4">
         <v>1384</v>
@@ -3733,7 +3781,7 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="G55" s="4">
-        <v>186</v>
+        <v>105</v>
       </c>
       <c r="H55" s="4">
         <v>1413</v>
@@ -3742,7 +3790,7 @@
         <v>0.88400000000000001</v>
       </c>
       <c r="J55" s="4">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="K55" s="4">
         <v>1476</v>
@@ -3751,7 +3799,7 @@
         <v>0.92300000000000004</v>
       </c>
       <c r="M55" s="4">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N55" s="4">
         <v>1544</v>
@@ -3762,16 +3810,16 @@
     </row>
     <row r="56" spans="1:15" ht="17">
       <c r="A56" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B56" s="3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C56" s="4">
-        <v>1049</v>
+        <v>999</v>
       </c>
       <c r="D56" s="4">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="E56" s="4">
         <v>919</v>
@@ -3780,7 +3828,7 @@
         <v>0.876</v>
       </c>
       <c r="G56" s="4">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="H56" s="4">
         <v>929</v>
@@ -3789,7 +3837,7 @@
         <v>0.88600000000000001</v>
       </c>
       <c r="J56" s="4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K56" s="4">
         <v>988</v>
@@ -3798,7 +3846,7 @@
         <v>0.94199999999999995</v>
       </c>
       <c r="M56" s="4">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N56" s="4">
         <v>1033</v>
@@ -3809,16 +3857,16 @@
     </row>
     <row r="57" spans="1:15" ht="17">
       <c r="A57" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B57" s="3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C57" s="4">
-        <v>1099</v>
+        <v>1349</v>
       </c>
       <c r="D57" s="4">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E57" s="4">
         <v>953</v>
@@ -3827,7 +3875,7 @@
         <v>0.86699999999999999</v>
       </c>
       <c r="G57" s="4">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="H57" s="4">
         <v>974</v>
@@ -3836,7 +3884,7 @@
         <v>0.88600000000000001</v>
       </c>
       <c r="J57" s="4">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="K57" s="4">
         <v>1033</v>
@@ -3845,7 +3893,7 @@
         <v>0.94</v>
       </c>
       <c r="M57" s="4">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N57" s="4">
         <v>1074</v>
@@ -3856,16 +3904,16 @@
     </row>
     <row r="58" spans="1:15" ht="17">
       <c r="A58" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B58" s="3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C58" s="4">
-        <v>999</v>
+        <v>1049.99</v>
       </c>
       <c r="D58" s="4">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="E58" s="4">
         <v>867</v>
@@ -3874,7 +3922,7 @@
         <v>0.86799999999999999</v>
       </c>
       <c r="G58" s="4">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="H58" s="4">
         <v>887</v>
@@ -3883,7 +3931,7 @@
         <v>0.88800000000000001</v>
       </c>
       <c r="J58" s="4">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K58" s="4">
         <v>932</v>
@@ -3892,7 +3940,7 @@
         <v>0.93300000000000005</v>
       </c>
       <c r="M58" s="4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N58" s="4">
         <v>969</v>
@@ -3903,16 +3951,16 @@
     </row>
     <row r="59" spans="1:15" ht="17">
       <c r="A59" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B59" s="3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C59" s="4">
-        <v>699</v>
+        <v>799</v>
       </c>
       <c r="D59" s="4">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E59" s="4">
         <v>611</v>
@@ -3921,7 +3969,7 @@
         <v>0.874</v>
       </c>
       <c r="G59" s="4">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H59" s="4">
         <v>628</v>
@@ -3930,7 +3978,7 @@
         <v>0.89800000000000002</v>
       </c>
       <c r="J59" s="4">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="K59" s="4">
         <v>656</v>
@@ -3939,7 +3987,7 @@
         <v>0.93799999999999994</v>
       </c>
       <c r="M59" s="4">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N59" s="4">
         <v>685</v>
@@ -3950,16 +3998,16 @@
     </row>
     <row r="60" spans="1:15" ht="17">
       <c r="A60" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B60" s="3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C60" s="4">
-        <v>1349</v>
+        <v>849</v>
       </c>
       <c r="D60" s="4">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="E60" s="4">
         <v>1198</v>
@@ -3968,7 +4016,7 @@
         <v>0.88800000000000001</v>
       </c>
       <c r="G60" s="4">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="H60" s="4">
         <v>1214</v>
@@ -3977,7 +4025,7 @@
         <v>0.9</v>
       </c>
       <c r="J60" s="4">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="K60" s="4">
         <v>1258</v>
@@ -3986,7 +4034,7 @@
         <v>0.93300000000000005</v>
       </c>
       <c r="M60" s="4">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="N60" s="4">
         <v>1319</v>
@@ -3997,16 +4045,16 @@
     </row>
     <row r="61" spans="1:15" ht="17">
       <c r="A61" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C61" s="4">
-        <v>899</v>
+        <v>1199</v>
       </c>
       <c r="D61" s="4">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="E61" s="4">
         <v>801</v>
@@ -4015,7 +4063,7 @@
         <v>0.89100000000000001</v>
       </c>
       <c r="G61" s="4">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="H61" s="4">
         <v>811</v>
@@ -4024,7 +4072,7 @@
         <v>0.90200000000000002</v>
       </c>
       <c r="J61" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K61" s="4">
         <v>839</v>
@@ -4033,7 +4081,7 @@
         <v>0.93300000000000005</v>
       </c>
       <c r="M61" s="4">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N61" s="4">
         <v>882</v>
@@ -4044,16 +4092,16 @@
     </row>
     <row r="62" spans="1:15" ht="17">
       <c r="A62" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B62" s="3">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C62" s="4">
-        <v>1049.99</v>
+        <v>899</v>
       </c>
       <c r="D62" s="4">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="E62" s="4">
         <v>934.99</v>
@@ -4062,7 +4110,7 @@
         <v>0.89</v>
       </c>
       <c r="G62" s="4">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H62" s="4">
         <v>949.99</v>
@@ -4071,7 +4119,7 @@
         <v>0.90500000000000003</v>
       </c>
       <c r="J62" s="4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K62" s="4">
         <v>988.99</v>
@@ -4080,7 +4128,7 @@
         <v>0.94199999999999995</v>
       </c>
       <c r="M62" s="4">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="N62" s="4">
         <v>1029.99</v>
@@ -4091,16 +4139,16 @@
     </row>
     <row r="63" spans="1:15" ht="17">
       <c r="A63" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B63" s="3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C63" s="4">
-        <v>1199</v>
+        <v>999.99</v>
       </c>
       <c r="D63" s="4">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="E63" s="4">
         <v>1074</v>
@@ -4109,7 +4157,7 @@
         <v>0.89600000000000002</v>
       </c>
       <c r="G63" s="4">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="H63" s="4">
         <v>1089</v>
@@ -4118,7 +4166,7 @@
         <v>0.90800000000000003</v>
       </c>
       <c r="J63" s="4">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="K63" s="4">
         <v>1128</v>
@@ -4127,7 +4175,7 @@
         <v>0.94099999999999995</v>
       </c>
       <c r="M63" s="4">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N63" s="4">
         <v>1174</v>
@@ -4138,16 +4186,16 @@
     </row>
     <row r="64" spans="1:15" ht="17">
       <c r="A64" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B64" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C64" s="4">
-        <v>999.99</v>
+        <v>699</v>
       </c>
       <c r="D64" s="4">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="E64" s="4">
         <v>897.99</v>
@@ -4156,7 +4204,7 @@
         <v>0.89800000000000002</v>
       </c>
       <c r="G64" s="4">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="H64" s="4">
         <v>912.99</v>
@@ -4165,7 +4213,7 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="J64" s="4">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K64" s="4">
         <v>948.99</v>
@@ -4174,7 +4222,7 @@
         <v>0.94899999999999995</v>
       </c>
       <c r="M64" s="4">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N64" s="4">
         <v>983.99</v>
@@ -4194,7 +4242,7 @@
         <v>1149</v>
       </c>
       <c r="D65" s="4">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E65" s="4">
         <v>1040</v>
@@ -4203,7 +4251,7 @@
         <v>0.90500000000000003</v>
       </c>
       <c r="G65" s="4">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H65" s="4">
         <v>1051</v>
@@ -4221,7 +4269,7 @@
         <v>0.93899999999999995</v>
       </c>
       <c r="M65" s="4">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N65" s="4">
         <v>1130</v>
@@ -4241,7 +4289,7 @@
         <v>1599</v>
       </c>
       <c r="D66" s="4">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E66" s="4">
         <v>1453</v>
@@ -4250,7 +4298,7 @@
         <v>0.90900000000000003</v>
       </c>
       <c r="G66" s="4">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="H66" s="4">
         <v>1464</v>
@@ -4268,7 +4316,7 @@
         <v>0.94399999999999995</v>
       </c>
       <c r="M66" s="4">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N66" s="4">
         <v>1572</v>
@@ -4288,7 +4336,7 @@
         <v>1249</v>
       </c>
       <c r="D67" s="4">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E67" s="4">
         <v>1136</v>
@@ -4297,7 +4345,7 @@
         <v>0.91</v>
       </c>
       <c r="G67" s="4">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H67" s="4">
         <v>1146</v>
@@ -4306,7 +4354,7 @@
         <v>0.91800000000000004</v>
       </c>
       <c r="J67" s="4">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K67" s="4">
         <v>1187</v>
@@ -4315,7 +4363,7 @@
         <v>0.95</v>
       </c>
       <c r="M67" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N67" s="4">
         <v>1229</v>
@@ -4326,16 +4374,16 @@
     </row>
     <row r="68" spans="1:15" ht="17">
       <c r="A68" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B68" s="3">
         <v>2019</v>
       </c>
       <c r="C68" s="4">
-        <v>699</v>
+        <v>999</v>
       </c>
       <c r="D68" s="4">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E68" s="4">
         <v>634</v>
@@ -4344,7 +4392,7 @@
         <v>0.90700000000000003</v>
       </c>
       <c r="G68" s="4">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="H68" s="4">
         <v>644</v>
@@ -4353,7 +4401,7 @@
         <v>0.92100000000000004</v>
       </c>
       <c r="J68" s="4">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K68" s="4">
         <v>664</v>
@@ -4382,7 +4430,7 @@
         <v>1000</v>
       </c>
       <c r="D69" s="4">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E69" s="4">
         <v>903</v>
@@ -4391,7 +4439,7 @@
         <v>0.90300000000000002</v>
       </c>
       <c r="G69" s="4">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H69" s="4">
         <v>922</v>
@@ -4400,7 +4448,7 @@
         <v>0.92200000000000004</v>
       </c>
       <c r="J69" s="4">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K69" s="4">
         <v>953</v>
@@ -4409,7 +4457,7 @@
         <v>0.95299999999999996</v>
       </c>
       <c r="M69" s="4">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N69" s="4">
         <v>975</v>
@@ -4420,16 +4468,16 @@
     </row>
     <row r="70" spans="1:15" ht="17">
       <c r="A70" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B70" s="3">
         <v>2019</v>
       </c>
       <c r="C70" s="4">
-        <v>999</v>
+        <v>699</v>
       </c>
       <c r="D70" s="4">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="E70" s="4">
         <v>912</v>
@@ -4438,7 +4486,7 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="G70" s="4">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="H70" s="4">
         <v>923</v>
@@ -4447,7 +4495,7 @@
         <v>0.92400000000000004</v>
       </c>
       <c r="J70" s="4">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K70" s="4">
         <v>953</v>
@@ -4456,7 +4504,7 @@
         <v>0.95399999999999996</v>
       </c>
       <c r="M70" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N70" s="4">
         <v>984</v>
@@ -4476,7 +4524,7 @@
         <v>1250</v>
       </c>
       <c r="D71" s="4">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="E71" s="4">
         <v>1137</v>
@@ -4485,7 +4533,7 @@
         <v>0.91</v>
       </c>
       <c r="G71" s="4">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="H71" s="4">
         <v>1156</v>
@@ -4494,7 +4542,7 @@
         <v>0.92500000000000004</v>
       </c>
       <c r="J71" s="4">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K71" s="4">
         <v>1193</v>
@@ -4503,7 +4551,7 @@
         <v>0.95399999999999996</v>
       </c>
       <c r="M71" s="4">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N71" s="4">
         <v>1220</v>
@@ -4523,7 +4571,7 @@
         <v>599</v>
       </c>
       <c r="D72" s="4">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E72" s="4">
         <v>550</v>
@@ -4532,7 +4580,7 @@
         <v>0.91800000000000004</v>
       </c>
       <c r="G72" s="4">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H72" s="4">
         <v>560</v>
@@ -4550,7 +4598,7 @@
         <v>0.95799999999999996</v>
       </c>
       <c r="M72" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N72" s="4">
         <v>592</v>
@@ -4617,7 +4665,7 @@
         <v>719</v>
       </c>
       <c r="D74" s="4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E74" s="4">
         <v>683</v>
@@ -4626,7 +4674,7 @@
         <v>0.95</v>
       </c>
       <c r="G74" s="4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H74" s="4">
         <v>688</v>
@@ -4635,7 +4683,7 @@
         <v>0.95699999999999996</v>
       </c>
       <c r="J74" s="4">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K74" s="4">
         <v>700</v>
@@ -4644,7 +4692,7 @@
         <v>0.97399999999999998</v>
       </c>
       <c r="M74" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N74" s="4">
         <v>713</v>
@@ -4711,7 +4759,7 @@
         <v>929</v>
       </c>
       <c r="D76" s="4">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E76" s="4">
         <v>869</v>
@@ -4720,7 +4768,7 @@
         <v>0.93500000000000005</v>
       </c>
       <c r="G76" s="4">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H76" s="4">
         <v>890</v>
@@ -4729,7 +4777,7 @@
         <v>0.95799999999999996</v>
       </c>
       <c r="J76" s="4">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K76" s="4">
         <v>905</v>
@@ -4738,7 +4786,7 @@
         <v>0.97399999999999998</v>
       </c>
       <c r="M76" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N76" s="4">
         <v>922</v>
@@ -4758,7 +4806,7 @@
         <v>725</v>
       </c>
       <c r="D77" s="4">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E77" s="4">
         <v>692</v>
@@ -4767,7 +4815,7 @@
         <v>0.95399999999999996</v>
       </c>
       <c r="G77" s="4">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H77" s="4">
         <v>703</v>
@@ -4776,7 +4824,7 @@
         <v>0.97</v>
       </c>
       <c r="J77" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K77" s="4">
         <v>711</v>
@@ -4785,7 +4833,7 @@
         <v>0.98099999999999998</v>
       </c>
       <c r="M77" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N77" s="4">
         <v>721</v>
@@ -4805,7 +4853,7 @@
         <v>825</v>
       </c>
       <c r="D78" s="4">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E78" s="4">
         <v>794</v>
@@ -4814,7 +4862,7 @@
         <v>0.96199999999999997</v>
       </c>
       <c r="G78" s="4">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H78" s="4">
         <v>804</v>
@@ -4823,7 +4871,7 @@
         <v>0.97499999999999998</v>
       </c>
       <c r="J78" s="4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K78" s="4">
         <v>812</v>
@@ -4832,7 +4880,7 @@
         <v>0.98399999999999999</v>
       </c>
       <c r="M78" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N78" s="4">
         <v>821</v>
@@ -5085,12 +5133,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E392D4F6-8620-2F4A-9DBE-B0ABB1CF35D8}">
   <dimension ref="A1:O112"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:M112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
+    <col min="1" max="1" width="32.5" customWidth="1"/>
     <col min="3" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -5180,7 +5229,7 @@
         <v>1199</v>
       </c>
       <c r="D3" s="4">
-        <v>841</v>
+        <v>731</v>
       </c>
       <c r="E3" s="4">
         <v>358</v>
@@ -5189,7 +5238,7 @@
         <v>0.29899999999999999</v>
       </c>
       <c r="G3" s="4">
-        <v>782</v>
+        <v>676</v>
       </c>
       <c r="H3" s="4">
         <v>417</v>
@@ -5198,7 +5247,7 @@
         <v>0.34799999999999998</v>
       </c>
       <c r="J3" s="4">
-        <v>646</v>
+        <v>595</v>
       </c>
       <c r="K3" s="4">
         <v>553</v>
@@ -5218,16 +5267,16 @@
     </row>
     <row r="4" spans="1:15" ht="17">
       <c r="A4" s="3" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B4" s="3">
         <v>2024</v>
       </c>
       <c r="C4" s="4">
-        <v>1399</v>
+        <v>899</v>
       </c>
       <c r="D4" s="4">
-        <v>946</v>
+        <v>523</v>
       </c>
       <c r="E4" s="4">
         <v>453</v>
@@ -5236,7 +5285,7 @@
         <v>0.32400000000000001</v>
       </c>
       <c r="G4" s="4">
-        <v>889</v>
+        <v>493</v>
       </c>
       <c r="H4" s="4">
         <v>510</v>
@@ -5245,7 +5294,7 @@
         <v>0.36499999999999999</v>
       </c>
       <c r="J4" s="4">
-        <v>745</v>
+        <v>405</v>
       </c>
       <c r="K4" s="4">
         <v>654</v>
@@ -5254,7 +5303,7 @@
         <v>0.46700000000000003</v>
       </c>
       <c r="M4" s="4">
-        <v>575</v>
+        <v>256</v>
       </c>
       <c r="N4" s="4">
         <v>824</v>
@@ -5265,16 +5314,16 @@
     </row>
     <row r="5" spans="1:15" ht="17">
       <c r="A5" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B5" s="3">
         <v>2024</v>
       </c>
       <c r="C5" s="4">
-        <v>1099</v>
+        <v>999</v>
       </c>
       <c r="D5" s="4">
-        <v>736</v>
+        <v>571</v>
       </c>
       <c r="E5" s="4">
         <v>363</v>
@@ -5283,7 +5332,7 @@
         <v>0.33</v>
       </c>
       <c r="G5" s="4">
-        <v>681</v>
+        <v>541</v>
       </c>
       <c r="H5" s="4">
         <v>418</v>
@@ -5292,7 +5341,7 @@
         <v>0.38</v>
       </c>
       <c r="J5" s="4">
-        <v>541</v>
+        <v>455</v>
       </c>
       <c r="K5" s="4">
         <v>558</v>
@@ -5301,7 +5350,7 @@
         <v>0.50800000000000001</v>
       </c>
       <c r="M5" s="4">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="N5" s="4">
         <v>714</v>
@@ -5312,16 +5361,16 @@
     </row>
     <row r="6" spans="1:15" ht="17">
       <c r="A6" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="3">
         <v>2024</v>
       </c>
       <c r="C6" s="4">
-        <v>1599</v>
+        <v>1099</v>
       </c>
       <c r="D6" s="4">
-        <v>1006</v>
+        <v>621</v>
       </c>
       <c r="E6" s="4">
         <v>593</v>
@@ -5330,7 +5379,7 @@
         <v>0.371</v>
       </c>
       <c r="G6" s="4">
-        <v>984</v>
+        <v>591</v>
       </c>
       <c r="H6" s="4">
         <v>615</v>
@@ -5339,7 +5388,7 @@
         <v>0.38500000000000001</v>
       </c>
       <c r="J6" s="4">
-        <v>810</v>
+        <v>505</v>
       </c>
       <c r="K6" s="4">
         <v>789</v>
@@ -5348,7 +5397,7 @@
         <v>0.49299999999999999</v>
       </c>
       <c r="M6" s="4">
-        <v>635</v>
+        <v>415</v>
       </c>
       <c r="N6" s="4">
         <v>964</v>
@@ -5359,16 +5408,16 @@
     </row>
     <row r="7" spans="1:15" ht="17">
       <c r="A7" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B7" s="3">
         <v>2024</v>
       </c>
       <c r="C7" s="4">
-        <v>1199</v>
+        <v>999</v>
       </c>
       <c r="D7" s="4">
-        <v>765</v>
+        <v>563</v>
       </c>
       <c r="E7" s="4">
         <v>434</v>
@@ -5377,7 +5426,7 @@
         <v>0.36199999999999999</v>
       </c>
       <c r="G7" s="4">
-        <v>734</v>
+        <v>533</v>
       </c>
       <c r="H7" s="4">
         <v>465</v>
@@ -5386,7 +5435,7 @@
         <v>0.38800000000000001</v>
       </c>
       <c r="J7" s="4">
-        <v>526</v>
+        <v>445</v>
       </c>
       <c r="K7" s="4">
         <v>673</v>
@@ -5395,7 +5444,7 @@
         <v>0.56100000000000005</v>
       </c>
       <c r="M7" s="4">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="N7" s="4">
         <v>858</v>
@@ -5406,16 +5455,16 @@
     </row>
     <row r="8" spans="1:15" ht="17">
       <c r="A8" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B8" s="3">
         <v>2024</v>
       </c>
       <c r="C8" s="4">
-        <v>999</v>
+        <v>1399</v>
       </c>
       <c r="D8" s="4">
-        <v>656</v>
+        <v>791</v>
       </c>
       <c r="E8" s="4">
         <v>343</v>
@@ -5424,7 +5473,7 @@
         <v>0.34300000000000003</v>
       </c>
       <c r="G8" s="4">
-        <v>611</v>
+        <v>736</v>
       </c>
       <c r="H8" s="4">
         <v>388</v>
@@ -5433,7 +5482,7 @@
         <v>0.38800000000000001</v>
       </c>
       <c r="J8" s="4">
-        <v>476</v>
+        <v>655</v>
       </c>
       <c r="K8" s="4">
         <v>523</v>
@@ -5442,7 +5491,7 @@
         <v>0.52400000000000002</v>
       </c>
       <c r="M8" s="4">
-        <v>310</v>
+        <v>575</v>
       </c>
       <c r="N8" s="4">
         <v>689</v>
@@ -5453,16 +5502,16 @@
     </row>
     <row r="9" spans="1:15" ht="17">
       <c r="A9" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B9" s="3">
         <v>2024</v>
       </c>
       <c r="C9" s="4">
-        <v>1499</v>
+        <v>1599</v>
       </c>
       <c r="D9" s="4">
-        <v>931</v>
+        <v>881</v>
       </c>
       <c r="E9" s="4">
         <v>568</v>
@@ -5471,7 +5520,7 @@
         <v>0.379</v>
       </c>
       <c r="G9" s="4">
-        <v>901</v>
+        <v>826</v>
       </c>
       <c r="H9" s="4">
         <v>598</v>
@@ -5480,7 +5529,7 @@
         <v>0.39900000000000002</v>
       </c>
       <c r="J9" s="4">
-        <v>675</v>
+        <v>745</v>
       </c>
       <c r="K9" s="4">
         <v>824</v>
@@ -5489,7 +5538,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="M9" s="4">
-        <v>500</v>
+        <v>635</v>
       </c>
       <c r="N9" s="4">
         <v>999</v>
@@ -5500,16 +5549,16 @@
     </row>
     <row r="10" spans="1:15" ht="17">
       <c r="A10" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B10" s="3">
         <v>2024</v>
       </c>
       <c r="C10" s="4">
-        <v>999</v>
+        <v>799</v>
       </c>
       <c r="D10" s="4">
-        <v>656</v>
+        <v>451</v>
       </c>
       <c r="E10" s="4">
         <v>343</v>
@@ -5518,7 +5567,7 @@
         <v>0.34300000000000003</v>
       </c>
       <c r="G10" s="4">
-        <v>594</v>
+        <v>411</v>
       </c>
       <c r="H10" s="4">
         <v>405</v>
@@ -5527,7 +5576,7 @@
         <v>0.40500000000000003</v>
       </c>
       <c r="J10" s="4">
-        <v>476</v>
+        <v>331</v>
       </c>
       <c r="K10" s="4">
         <v>523</v>
@@ -5536,7 +5585,7 @@
         <v>0.52400000000000002</v>
       </c>
       <c r="M10" s="4">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="N10" s="4">
         <v>694</v>
@@ -5547,16 +5596,16 @@
     </row>
     <row r="11" spans="1:15" ht="17">
       <c r="A11" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B11" s="3">
         <v>2024</v>
       </c>
       <c r="C11" s="4">
-        <v>1299</v>
+        <v>1499</v>
       </c>
       <c r="D11" s="4">
-        <v>826</v>
+        <v>801</v>
       </c>
       <c r="E11" s="4">
         <v>473</v>
@@ -5574,7 +5623,7 @@
         <v>0.40600000000000003</v>
       </c>
       <c r="J11" s="4">
-        <v>631</v>
+        <v>605</v>
       </c>
       <c r="K11" s="4">
         <v>668</v>
@@ -5583,7 +5632,7 @@
         <v>0.51400000000000001</v>
       </c>
       <c r="M11" s="4">
-        <v>435</v>
+        <v>540</v>
       </c>
       <c r="N11" s="4">
         <v>864</v>
@@ -5603,7 +5652,7 @@
         <v>899</v>
       </c>
       <c r="D12" s="4">
-        <v>576</v>
+        <v>481</v>
       </c>
       <c r="E12" s="4">
         <v>323</v>
@@ -5612,7 +5661,7 @@
         <v>0.35899999999999999</v>
       </c>
       <c r="G12" s="4">
-        <v>529</v>
+        <v>441</v>
       </c>
       <c r="H12" s="4">
         <v>370</v>
@@ -5621,7 +5670,7 @@
         <v>0.41199999999999998</v>
       </c>
       <c r="J12" s="4">
-        <v>435</v>
+        <v>366</v>
       </c>
       <c r="K12" s="4">
         <v>464</v>
@@ -5630,7 +5679,7 @@
         <v>0.51600000000000001</v>
       </c>
       <c r="M12" s="4">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="N12" s="4">
         <v>599</v>
@@ -5641,16 +5690,16 @@
     </row>
     <row r="13" spans="1:15" ht="17">
       <c r="A13" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B13" s="3">
         <v>2024</v>
       </c>
       <c r="C13" s="4">
-        <v>899</v>
+        <v>1299</v>
       </c>
       <c r="D13" s="4">
-        <v>586</v>
+        <v>681</v>
       </c>
       <c r="E13" s="4">
         <v>313</v>
@@ -5659,7 +5708,7 @@
         <v>0.34799999999999998</v>
       </c>
       <c r="G13" s="4">
-        <v>529</v>
+        <v>636</v>
       </c>
       <c r="H13" s="4">
         <v>370</v>
@@ -5668,7 +5717,7 @@
         <v>0.41199999999999998</v>
       </c>
       <c r="J13" s="4">
-        <v>406</v>
+        <v>545</v>
       </c>
       <c r="K13" s="4">
         <v>493</v>
@@ -5677,7 +5726,7 @@
         <v>0.54800000000000004</v>
       </c>
       <c r="M13" s="4">
-        <v>256</v>
+        <v>470</v>
       </c>
       <c r="N13" s="4">
         <v>643</v>
@@ -5688,16 +5737,16 @@
     </row>
     <row r="14" spans="1:15" ht="17">
       <c r="A14" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B14" s="3">
         <v>2024</v>
       </c>
       <c r="C14" s="4">
-        <v>799</v>
+        <v>1199</v>
       </c>
       <c r="D14" s="4">
-        <v>501</v>
+        <v>598</v>
       </c>
       <c r="E14" s="4">
         <v>298</v>
@@ -5706,7 +5755,7 @@
         <v>0.373</v>
       </c>
       <c r="G14" s="4">
-        <v>459</v>
+        <v>568</v>
       </c>
       <c r="H14" s="4">
         <v>340</v>
@@ -5715,7 +5764,7 @@
         <v>0.42599999999999999</v>
       </c>
       <c r="J14" s="4">
-        <v>375</v>
+        <v>480</v>
       </c>
       <c r="K14" s="4">
         <v>424</v>
@@ -5724,7 +5773,7 @@
         <v>0.53100000000000003</v>
       </c>
       <c r="M14" s="4">
-        <v>250</v>
+        <v>346</v>
       </c>
       <c r="N14" s="4">
         <v>549</v>
@@ -5735,16 +5784,16 @@
     </row>
     <row r="15" spans="1:15" ht="17">
       <c r="A15" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B15" s="3">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C15" s="4">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="D15" s="4">
-        <v>621</v>
+        <v>571</v>
       </c>
       <c r="E15" s="4">
         <v>478</v>
@@ -5753,7 +5802,7 @@
         <v>0.435</v>
       </c>
       <c r="G15" s="4">
-        <v>599</v>
+        <v>523</v>
       </c>
       <c r="H15" s="4">
         <v>500</v>
@@ -5762,7 +5811,7 @@
         <v>0.45500000000000002</v>
       </c>
       <c r="J15" s="4">
-        <v>485</v>
+        <v>406</v>
       </c>
       <c r="K15" s="4">
         <v>614</v>
@@ -5771,7 +5820,7 @@
         <v>0.55900000000000005</v>
       </c>
       <c r="M15" s="4">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="N15" s="4">
         <v>749</v>
@@ -5791,7 +5840,7 @@
         <v>999</v>
       </c>
       <c r="D16" s="4">
-        <v>575</v>
+        <v>461</v>
       </c>
       <c r="E16" s="4">
         <v>424</v>
@@ -5800,7 +5849,7 @@
         <v>0.42399999999999999</v>
       </c>
       <c r="G16" s="4">
-        <v>521</v>
+        <v>431</v>
       </c>
       <c r="H16" s="4">
         <v>478</v>
@@ -5809,7 +5858,7 @@
         <v>0.47799999999999998</v>
       </c>
       <c r="J16" s="4">
-        <v>401</v>
+        <v>331</v>
       </c>
       <c r="K16" s="4">
         <v>598</v>
@@ -5818,7 +5867,7 @@
         <v>0.59899999999999998</v>
       </c>
       <c r="M16" s="4">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N16" s="4">
         <v>753</v>
@@ -5829,16 +5878,16 @@
     </row>
     <row r="17" spans="1:15" ht="17">
       <c r="A17" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B17" s="3">
         <v>2023</v>
       </c>
       <c r="C17" s="4">
-        <v>899</v>
+        <v>1099</v>
       </c>
       <c r="D17" s="4">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E17" s="4">
         <v>393</v>
@@ -5847,7 +5896,7 @@
         <v>0.437</v>
       </c>
       <c r="G17" s="4">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="H17" s="4">
         <v>435</v>
@@ -5856,7 +5905,7 @@
         <v>0.48399999999999999</v>
       </c>
       <c r="J17" s="4">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="K17" s="4">
         <v>539</v>
@@ -5865,7 +5914,7 @@
         <v>0.6</v>
       </c>
       <c r="M17" s="4">
-        <v>206</v>
+        <v>285</v>
       </c>
       <c r="N17" s="4">
         <v>693</v>
@@ -5876,16 +5925,16 @@
     </row>
     <row r="18" spans="1:15" ht="17">
       <c r="A18" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B18" s="3">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C18" s="4">
         <v>1099</v>
       </c>
       <c r="D18" s="4">
-        <v>615</v>
+        <v>511</v>
       </c>
       <c r="E18" s="4">
         <v>484</v>
@@ -5894,7 +5943,7 @@
         <v>0.44</v>
       </c>
       <c r="G18" s="4">
-        <v>561</v>
+        <v>471</v>
       </c>
       <c r="H18" s="4">
         <v>538</v>
@@ -5903,7 +5952,7 @@
         <v>0.49</v>
       </c>
       <c r="J18" s="4">
-        <v>460</v>
+        <v>391</v>
       </c>
       <c r="K18" s="4">
         <v>639</v>
@@ -5912,7 +5961,7 @@
         <v>0.58099999999999996</v>
       </c>
       <c r="M18" s="4">
-        <v>291</v>
+        <v>365</v>
       </c>
       <c r="N18" s="4">
         <v>808</v>
@@ -5923,16 +5972,16 @@
     </row>
     <row r="19" spans="1:15" ht="17">
       <c r="A19" s="3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B19" s="3">
         <v>2023</v>
       </c>
       <c r="C19" s="4">
-        <v>1199</v>
+        <v>799</v>
       </c>
       <c r="D19" s="4">
-        <v>661</v>
+        <v>361</v>
       </c>
       <c r="E19" s="4">
         <v>538</v>
@@ -5941,7 +5990,7 @@
         <v>0.44900000000000001</v>
       </c>
       <c r="G19" s="4">
-        <v>611</v>
+        <v>331</v>
       </c>
       <c r="H19" s="4">
         <v>588</v>
@@ -5950,7 +5999,7 @@
         <v>0.49</v>
       </c>
       <c r="J19" s="4">
-        <v>505</v>
+        <v>265</v>
       </c>
       <c r="K19" s="4">
         <v>694</v>
@@ -5959,7 +6008,7 @@
         <v>0.57899999999999996</v>
       </c>
       <c r="M19" s="4">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="N19" s="4">
         <v>849</v>
@@ -5970,16 +6019,16 @@
     </row>
     <row r="20" spans="1:15" ht="17">
       <c r="A20" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B20" s="3">
         <v>2023</v>
       </c>
       <c r="C20" s="4">
-        <v>999</v>
+        <v>899</v>
       </c>
       <c r="D20" s="4">
-        <v>541</v>
+        <v>401</v>
       </c>
       <c r="E20" s="4">
         <v>458</v>
@@ -5988,7 +6037,7 @@
         <v>0.45800000000000002</v>
       </c>
       <c r="G20" s="4">
-        <v>494</v>
+        <v>371</v>
       </c>
       <c r="H20" s="4">
         <v>505</v>
@@ -5997,7 +6046,7 @@
         <v>0.50600000000000001</v>
       </c>
       <c r="J20" s="4">
-        <v>400</v>
+        <v>305</v>
       </c>
       <c r="K20" s="4">
         <v>599</v>
@@ -6006,7 +6055,7 @@
         <v>0.6</v>
       </c>
       <c r="M20" s="4">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="N20" s="4">
         <v>773</v>
@@ -6017,13 +6066,13 @@
     </row>
     <row r="21" spans="1:15" ht="17">
       <c r="A21" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B21" s="3">
         <v>2023</v>
       </c>
       <c r="C21" s="4">
-        <v>1199</v>
+        <v>1399</v>
       </c>
       <c r="D21" s="4">
         <v>601</v>
@@ -6035,7 +6084,7 @@
         <v>0.499</v>
       </c>
       <c r="G21" s="4">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="H21" s="4">
         <v>640</v>
@@ -6044,7 +6093,7 @@
         <v>0.53400000000000003</v>
       </c>
       <c r="J21" s="4">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="K21" s="4">
         <v>739</v>
@@ -6053,7 +6102,7 @@
         <v>0.61599999999999999</v>
       </c>
       <c r="M21" s="4">
-        <v>241</v>
+        <v>405</v>
       </c>
       <c r="N21" s="4">
         <v>958</v>
@@ -6064,16 +6113,16 @@
     </row>
     <row r="22" spans="1:15" ht="17">
       <c r="A22" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B22" s="3">
         <v>2023</v>
       </c>
       <c r="C22" s="4">
-        <v>1299</v>
+        <v>899</v>
       </c>
       <c r="D22" s="4">
-        <v>655</v>
+        <v>401</v>
       </c>
       <c r="E22" s="4">
         <v>644</v>
@@ -6082,7 +6131,7 @@
         <v>0.496</v>
       </c>
       <c r="G22" s="4">
-        <v>601</v>
+        <v>351</v>
       </c>
       <c r="H22" s="4">
         <v>698</v>
@@ -6091,7 +6140,7 @@
         <v>0.53700000000000003</v>
       </c>
       <c r="J22" s="4">
-        <v>486</v>
+        <v>281</v>
       </c>
       <c r="K22" s="4">
         <v>813</v>
@@ -6100,7 +6149,7 @@
         <v>0.626</v>
       </c>
       <c r="M22" s="4">
-        <v>325</v>
+        <v>201</v>
       </c>
       <c r="N22" s="4">
         <v>974</v>
@@ -6111,16 +6160,16 @@
     </row>
     <row r="23" spans="1:15" ht="17">
       <c r="A23" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B23" s="3">
         <v>2023</v>
       </c>
       <c r="C23" s="4">
-        <v>1399</v>
+        <v>1299</v>
       </c>
       <c r="D23" s="4">
-        <v>691</v>
+        <v>531</v>
       </c>
       <c r="E23" s="4">
         <v>708</v>
@@ -6129,7 +6178,7 @@
         <v>0.50600000000000001</v>
       </c>
       <c r="G23" s="4">
-        <v>641</v>
+        <v>501</v>
       </c>
       <c r="H23" s="4">
         <v>758</v>
@@ -6138,7 +6187,7 @@
         <v>0.54200000000000004</v>
       </c>
       <c r="J23" s="4">
-        <v>535</v>
+        <v>401</v>
       </c>
       <c r="K23" s="4">
         <v>864</v>
@@ -6147,7 +6196,7 @@
         <v>0.61799999999999999</v>
       </c>
       <c r="M23" s="4">
-        <v>385</v>
+        <v>325</v>
       </c>
       <c r="N23" s="4">
         <v>1014</v>
@@ -6158,16 +6207,16 @@
     </row>
     <row r="24" spans="1:15" ht="17">
       <c r="A24" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B24" s="3">
         <v>2023</v>
       </c>
       <c r="C24" s="4">
-        <v>899</v>
+        <v>999</v>
       </c>
       <c r="D24" s="4">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="E24" s="4">
         <v>458</v>
@@ -6176,7 +6225,7 @@
         <v>0.50900000000000001</v>
       </c>
       <c r="G24" s="4">
-        <v>411</v>
+        <v>381</v>
       </c>
       <c r="H24" s="4">
         <v>488</v>
@@ -6185,7 +6234,7 @@
         <v>0.54300000000000004</v>
       </c>
       <c r="J24" s="4">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="K24" s="4">
         <v>554</v>
@@ -6194,7 +6243,7 @@
         <v>0.61599999999999999</v>
       </c>
       <c r="M24" s="4">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N24" s="4">
         <v>688</v>
@@ -6205,16 +6254,16 @@
     </row>
     <row r="25" spans="1:15" ht="17">
       <c r="A25" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B25" s="3">
         <v>2023</v>
       </c>
       <c r="C25" s="4">
-        <v>799</v>
+        <v>1099</v>
       </c>
       <c r="D25" s="4">
-        <v>391</v>
+        <v>441</v>
       </c>
       <c r="E25" s="4">
         <v>408</v>
@@ -6223,7 +6272,7 @@
         <v>0.51100000000000001</v>
       </c>
       <c r="G25" s="4">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="H25" s="4">
         <v>438</v>
@@ -6232,7 +6281,7 @@
         <v>0.54800000000000004</v>
       </c>
       <c r="J25" s="4">
-        <v>295</v>
+        <v>345</v>
       </c>
       <c r="K25" s="4">
         <v>504</v>
@@ -6241,7 +6290,7 @@
         <v>0.63100000000000001</v>
       </c>
       <c r="M25" s="4">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="N25" s="4">
         <v>603</v>
@@ -6252,16 +6301,16 @@
     </row>
     <row r="26" spans="1:15" ht="17">
       <c r="A26" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B26" s="3">
         <v>2023</v>
       </c>
       <c r="C26" s="4">
-        <v>1099</v>
+        <v>1199</v>
       </c>
       <c r="D26" s="4">
-        <v>516</v>
+        <v>481</v>
       </c>
       <c r="E26" s="4">
         <v>583</v>
@@ -6270,7 +6319,7 @@
         <v>0.53</v>
       </c>
       <c r="G26" s="4">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="H26" s="4">
         <v>613</v>
@@ -6279,7 +6328,7 @@
         <v>0.55800000000000005</v>
       </c>
       <c r="J26" s="4">
-        <v>420</v>
+        <v>351</v>
       </c>
       <c r="K26" s="4">
         <v>679</v>
@@ -6288,7 +6337,7 @@
         <v>0.61799999999999999</v>
       </c>
       <c r="M26" s="4">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="N26" s="4">
         <v>869</v>
@@ -6299,16 +6348,16 @@
     </row>
     <row r="27" spans="1:15" ht="17">
       <c r="A27" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B27" s="3">
         <v>2023</v>
       </c>
       <c r="C27" s="4">
-        <v>1499</v>
+        <v>1599</v>
       </c>
       <c r="D27" s="4">
-        <v>695</v>
+        <v>641</v>
       </c>
       <c r="E27" s="4">
         <v>804</v>
@@ -6317,7 +6366,7 @@
         <v>0.53600000000000003</v>
       </c>
       <c r="G27" s="4">
-        <v>641</v>
+        <v>593</v>
       </c>
       <c r="H27" s="4">
         <v>858</v>
@@ -6326,7 +6375,7 @@
         <v>0.57199999999999995</v>
       </c>
       <c r="J27" s="4">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="K27" s="4">
         <v>974</v>
@@ -6335,7 +6384,7 @@
         <v>0.65</v>
       </c>
       <c r="M27" s="4">
-        <v>356</v>
+        <v>445</v>
       </c>
       <c r="N27" s="4">
         <v>1143</v>
@@ -6346,16 +6395,16 @@
     </row>
     <row r="28" spans="1:15" ht="17">
       <c r="A28" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B28" s="3">
         <v>2023</v>
       </c>
       <c r="C28" s="4">
-        <v>1599</v>
+        <v>1499</v>
       </c>
       <c r="D28" s="4">
-        <v>731</v>
+        <v>581</v>
       </c>
       <c r="E28" s="4">
         <v>868</v>
@@ -6364,7 +6413,7 @@
         <v>0.54300000000000004</v>
       </c>
       <c r="G28" s="4">
-        <v>681</v>
+        <v>551</v>
       </c>
       <c r="H28" s="4">
         <v>918</v>
@@ -6373,7 +6422,7 @@
         <v>0.57399999999999995</v>
       </c>
       <c r="J28" s="4">
-        <v>575</v>
+        <v>450</v>
       </c>
       <c r="K28" s="4">
         <v>1024</v>
@@ -6382,7 +6431,7 @@
         <v>0.64</v>
       </c>
       <c r="M28" s="4">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="N28" s="4">
         <v>1174</v>
@@ -6402,7 +6451,7 @@
         <v>1099</v>
       </c>
       <c r="D29" s="4">
-        <v>496</v>
+        <v>436</v>
       </c>
       <c r="E29" s="4">
         <v>603</v>
@@ -6411,7 +6460,7 @@
         <v>0.54900000000000004</v>
       </c>
       <c r="G29" s="4">
-        <v>454</v>
+        <v>401</v>
       </c>
       <c r="H29" s="4">
         <v>645</v>
@@ -6420,7 +6469,7 @@
         <v>0.58699999999999997</v>
       </c>
       <c r="J29" s="4">
-        <v>355</v>
+        <v>305</v>
       </c>
       <c r="K29" s="4">
         <v>744</v>
@@ -6429,7 +6478,7 @@
         <v>0.67700000000000005</v>
       </c>
       <c r="M29" s="4">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="N29" s="4">
         <v>853</v>
@@ -6449,7 +6498,7 @@
         <v>1199</v>
       </c>
       <c r="D30" s="4">
-        <v>536</v>
+        <v>466</v>
       </c>
       <c r="E30" s="4">
         <v>663</v>
@@ -6458,7 +6507,7 @@
         <v>0.55300000000000005</v>
       </c>
       <c r="G30" s="4">
-        <v>489</v>
+        <v>431</v>
       </c>
       <c r="H30" s="4">
         <v>710</v>
@@ -6467,7 +6516,7 @@
         <v>0.59199999999999997</v>
       </c>
       <c r="J30" s="4">
-        <v>395</v>
+        <v>335</v>
       </c>
       <c r="K30" s="4">
         <v>804</v>
@@ -6487,16 +6536,16 @@
     </row>
     <row r="31" spans="1:15" ht="17">
       <c r="A31" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B31" s="3">
         <v>2022</v>
       </c>
       <c r="C31" s="4">
-        <v>1399</v>
+        <v>999</v>
       </c>
       <c r="D31" s="4">
-        <v>556</v>
+        <v>342</v>
       </c>
       <c r="E31" s="4">
         <v>843</v>
@@ -6505,7 +6554,7 @@
         <v>0.60299999999999998</v>
       </c>
       <c r="G31" s="4">
-        <v>514</v>
+        <v>322</v>
       </c>
       <c r="H31" s="4">
         <v>885</v>
@@ -6514,7 +6563,7 @@
         <v>0.63300000000000001</v>
       </c>
       <c r="J31" s="4">
-        <v>415</v>
+        <v>226</v>
       </c>
       <c r="K31" s="4">
         <v>984</v>
@@ -6523,7 +6572,7 @@
         <v>0.70299999999999996</v>
       </c>
       <c r="M31" s="4">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="N31" s="4">
         <v>1099</v>
@@ -6534,16 +6583,16 @@
     </row>
     <row r="32" spans="1:15" ht="17">
       <c r="A32" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B32" s="3">
         <v>2022</v>
       </c>
       <c r="C32" s="4">
-        <v>999</v>
+        <v>1399</v>
       </c>
       <c r="D32" s="4">
-        <v>406</v>
+        <v>486</v>
       </c>
       <c r="E32" s="4">
         <v>593</v>
@@ -6552,7 +6601,7 @@
         <v>0.59399999999999997</v>
       </c>
       <c r="G32" s="4">
-        <v>359</v>
+        <v>451</v>
       </c>
       <c r="H32" s="4">
         <v>640</v>
@@ -6561,7 +6610,7 @@
         <v>0.64100000000000001</v>
       </c>
       <c r="J32" s="4">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="K32" s="4">
         <v>733</v>
@@ -6570,7 +6619,7 @@
         <v>0.73399999999999999</v>
       </c>
       <c r="M32" s="4">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="N32" s="4">
         <v>809</v>
@@ -6581,16 +6630,16 @@
     </row>
     <row r="33" spans="1:15" ht="17">
       <c r="A33" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B33" s="3">
         <v>2022</v>
       </c>
       <c r="C33" s="4">
-        <v>999</v>
+        <v>1099</v>
       </c>
       <c r="D33" s="4">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="E33" s="4">
         <v>616</v>
@@ -6599,7 +6648,7 @@
         <v>0.61699999999999999</v>
       </c>
       <c r="G33" s="4">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H33" s="4">
         <v>650</v>
@@ -6608,7 +6657,7 @@
         <v>0.65100000000000002</v>
       </c>
       <c r="J33" s="4">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="K33" s="4">
         <v>753</v>
@@ -6617,7 +6666,7 @@
         <v>0.754</v>
       </c>
       <c r="M33" s="4">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="N33" s="4">
         <v>828</v>
@@ -6628,16 +6677,16 @@
     </row>
     <row r="34" spans="1:15" ht="17">
       <c r="A34" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B34" s="3">
         <v>2022</v>
       </c>
       <c r="C34" s="4">
-        <v>1099</v>
+        <v>1299</v>
       </c>
       <c r="D34" s="4">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="E34" s="4">
         <v>668</v>
@@ -6646,7 +6695,7 @@
         <v>0.60799999999999998</v>
       </c>
       <c r="G34" s="4">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="H34" s="4">
         <v>715</v>
@@ -6655,7 +6704,7 @@
         <v>0.65100000000000002</v>
       </c>
       <c r="J34" s="4">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="K34" s="4">
         <v>808</v>
@@ -6664,7 +6713,7 @@
         <v>0.73499999999999999</v>
       </c>
       <c r="M34" s="4">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="N34" s="4">
         <v>874</v>
@@ -6675,16 +6724,16 @@
     </row>
     <row r="35" spans="1:15" ht="17">
       <c r="A35" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B35" s="3">
         <v>2022</v>
       </c>
       <c r="C35" s="4">
-        <v>899</v>
+        <v>1599</v>
       </c>
       <c r="D35" s="4">
-        <v>335</v>
+        <v>516</v>
       </c>
       <c r="E35" s="4">
         <v>564</v>
@@ -6693,7 +6742,7 @@
         <v>0.627</v>
       </c>
       <c r="G35" s="4">
-        <v>309</v>
+        <v>481</v>
       </c>
       <c r="H35" s="4">
         <v>590</v>
@@ -6702,7 +6751,7 @@
         <v>0.65600000000000003</v>
       </c>
       <c r="J35" s="4">
-        <v>216</v>
+        <v>385</v>
       </c>
       <c r="K35" s="4">
         <v>683</v>
@@ -6711,7 +6760,7 @@
         <v>0.76</v>
       </c>
       <c r="M35" s="4">
-        <v>156</v>
+        <v>330</v>
       </c>
       <c r="N35" s="4">
         <v>743</v>
@@ -6722,16 +6771,16 @@
     </row>
     <row r="36" spans="1:15" ht="17">
       <c r="A36" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B36" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C36" s="4">
-        <v>1599</v>
+        <v>1199</v>
       </c>
       <c r="D36" s="4">
-        <v>599</v>
+        <v>380</v>
       </c>
       <c r="E36" s="4">
         <v>1000</v>
@@ -6740,7 +6789,7 @@
         <v>0.625</v>
       </c>
       <c r="G36" s="4">
-        <v>544</v>
+        <v>355</v>
       </c>
       <c r="H36" s="4">
         <v>1055</v>
@@ -6749,7 +6798,7 @@
         <v>0.66</v>
       </c>
       <c r="J36" s="4">
-        <v>435</v>
+        <v>246</v>
       </c>
       <c r="K36" s="4">
         <v>1164</v>
@@ -6758,7 +6807,7 @@
         <v>0.72799999999999998</v>
       </c>
       <c r="M36" s="4">
-        <v>330</v>
+        <v>180</v>
       </c>
       <c r="N36" s="4">
         <v>1269</v>
@@ -6769,16 +6818,16 @@
     </row>
     <row r="37" spans="1:15" ht="17">
       <c r="A37" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B37" s="3">
         <v>2021</v>
       </c>
       <c r="C37" s="4">
-        <v>1199</v>
+        <v>1099</v>
       </c>
       <c r="D37" s="4">
-        <v>431</v>
+        <v>340</v>
       </c>
       <c r="E37" s="4">
         <v>768</v>
@@ -6787,7 +6836,7 @@
         <v>0.64100000000000001</v>
       </c>
       <c r="G37" s="4">
-        <v>401</v>
+        <v>315</v>
       </c>
       <c r="H37" s="4">
         <v>798</v>
@@ -6796,7 +6845,7 @@
         <v>0.66600000000000004</v>
       </c>
       <c r="J37" s="4">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="K37" s="4">
         <v>899</v>
@@ -6805,7 +6854,7 @@
         <v>0.75</v>
       </c>
       <c r="M37" s="4">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="N37" s="4">
         <v>1019</v>
@@ -6816,16 +6865,16 @@
     </row>
     <row r="38" spans="1:15" ht="17">
       <c r="A38" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B38" s="3">
         <v>2022</v>
       </c>
       <c r="C38" s="4">
-        <v>1299</v>
+        <v>999</v>
       </c>
       <c r="D38" s="4">
-        <v>461</v>
+        <v>321</v>
       </c>
       <c r="E38" s="4">
         <v>838</v>
@@ -6834,7 +6883,7 @@
         <v>0.64500000000000002</v>
       </c>
       <c r="G38" s="4">
-        <v>419</v>
+        <v>279</v>
       </c>
       <c r="H38" s="4">
         <v>880</v>
@@ -6843,7 +6892,7 @@
         <v>0.67700000000000005</v>
       </c>
       <c r="J38" s="4">
-        <v>321</v>
+        <v>211</v>
       </c>
       <c r="K38" s="4">
         <v>978</v>
@@ -6852,7 +6901,7 @@
         <v>0.753</v>
       </c>
       <c r="M38" s="4">
-        <v>250</v>
+        <v>146</v>
       </c>
       <c r="N38" s="4">
         <v>1049</v>
@@ -6863,16 +6912,16 @@
     </row>
     <row r="39" spans="1:15" ht="17">
       <c r="A39" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B39" s="3">
         <v>2022</v>
       </c>
       <c r="C39" s="4">
-        <v>1199</v>
+        <v>1499</v>
       </c>
       <c r="D39" s="4">
-        <v>406</v>
+        <v>433</v>
       </c>
       <c r="E39" s="4">
         <v>793</v>
@@ -6881,7 +6930,7 @@
         <v>0.66100000000000003</v>
       </c>
       <c r="G39" s="4">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="H39" s="4">
         <v>823</v>
@@ -6890,7 +6939,7 @@
         <v>0.68600000000000005</v>
       </c>
       <c r="J39" s="4">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="K39" s="4">
         <v>919</v>
@@ -6899,7 +6948,7 @@
         <v>0.76600000000000001</v>
       </c>
       <c r="M39" s="4">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="N39" s="4">
         <v>1018</v>
@@ -6910,7 +6959,7 @@
     </row>
     <row r="40" spans="1:15" ht="17">
       <c r="A40" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B40" s="3">
         <v>2022</v>
@@ -6919,7 +6968,7 @@
         <v>899</v>
       </c>
       <c r="D40" s="4">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="E40" s="4">
         <v>595</v>
@@ -6928,7 +6977,7 @@
         <v>0.66200000000000003</v>
       </c>
       <c r="G40" s="4">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="H40" s="4">
         <v>627</v>
@@ -6937,7 +6986,7 @@
         <v>0.69699999999999995</v>
       </c>
       <c r="J40" s="4">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="K40" s="4">
         <v>688</v>
@@ -6946,7 +6995,7 @@
         <v>0.76500000000000001</v>
       </c>
       <c r="M40" s="4">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="N40" s="4">
         <v>749</v>
@@ -6957,7 +7006,7 @@
     </row>
     <row r="41" spans="1:15" ht="17">
       <c r="A41" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B41" s="3">
         <v>2021</v>
@@ -6966,7 +7015,7 @@
         <v>1099</v>
       </c>
       <c r="D41" s="4">
-        <v>361</v>
+        <v>321</v>
       </c>
       <c r="E41" s="4">
         <v>738</v>
@@ -6975,7 +7024,7 @@
         <v>0.67200000000000004</v>
       </c>
       <c r="G41" s="4">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="H41" s="4">
         <v>768</v>
@@ -6984,7 +7033,7 @@
         <v>0.69899999999999995</v>
       </c>
       <c r="J41" s="4">
-        <v>231</v>
+        <v>181</v>
       </c>
       <c r="K41" s="4">
         <v>868</v>
@@ -6993,7 +7042,7 @@
         <v>0.79</v>
       </c>
       <c r="M41" s="4">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="N41" s="4">
         <v>944</v>
@@ -7004,16 +7053,16 @@
     </row>
     <row r="42" spans="1:15" ht="17">
       <c r="A42" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B42" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C42" s="4">
-        <v>799</v>
+        <v>1399</v>
       </c>
       <c r="D42" s="4">
-        <v>261</v>
+        <v>390</v>
       </c>
       <c r="E42" s="4">
         <v>538</v>
@@ -7022,7 +7071,7 @@
         <v>0.67300000000000004</v>
       </c>
       <c r="G42" s="4">
-        <v>240</v>
+        <v>365</v>
       </c>
       <c r="H42" s="4">
         <v>559</v>
@@ -7031,7 +7080,7 @@
         <v>0.7</v>
       </c>
       <c r="J42" s="4">
-        <v>181</v>
+        <v>256</v>
       </c>
       <c r="K42" s="4">
         <v>618</v>
@@ -7040,7 +7089,7 @@
         <v>0.77300000000000002</v>
       </c>
       <c r="M42" s="4">
-        <v>121</v>
+        <v>210</v>
       </c>
       <c r="N42" s="4">
         <v>678</v>
@@ -7051,16 +7100,16 @@
     </row>
     <row r="43" spans="1:15" ht="17">
       <c r="A43" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B43" s="3">
         <v>2022</v>
       </c>
       <c r="C43" s="4">
-        <v>1499</v>
+        <v>899</v>
       </c>
       <c r="D43" s="4">
-        <v>491</v>
+        <v>268</v>
       </c>
       <c r="E43" s="4">
         <v>1008</v>
@@ -7069,7 +7118,7 @@
         <v>0.67200000000000004</v>
       </c>
       <c r="G43" s="4">
-        <v>444</v>
+        <v>235</v>
       </c>
       <c r="H43" s="4">
         <v>1055</v>
@@ -7078,7 +7127,7 @@
         <v>0.70399999999999996</v>
       </c>
       <c r="J43" s="4">
-        <v>350</v>
+        <v>156</v>
       </c>
       <c r="K43" s="4">
         <v>1149</v>
@@ -7087,7 +7136,7 @@
         <v>0.76700000000000002</v>
       </c>
       <c r="M43" s="4">
-        <v>260</v>
+        <v>111</v>
       </c>
       <c r="N43" s="4">
         <v>1239</v>
@@ -7098,16 +7147,16 @@
     </row>
     <row r="44" spans="1:15" ht="17">
       <c r="A44" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B44" s="3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C44" s="4">
-        <v>1399</v>
+        <v>1199</v>
       </c>
       <c r="D44" s="4">
-        <v>441</v>
+        <v>346</v>
       </c>
       <c r="E44" s="4">
         <v>958</v>
@@ -7116,7 +7165,7 @@
         <v>0.68500000000000005</v>
       </c>
       <c r="G44" s="4">
-        <v>411</v>
+        <v>311</v>
       </c>
       <c r="H44" s="4">
         <v>988</v>
@@ -7125,7 +7174,7 @@
         <v>0.70599999999999996</v>
       </c>
       <c r="J44" s="4">
-        <v>310</v>
+        <v>231</v>
       </c>
       <c r="K44" s="4">
         <v>1089</v>
@@ -7134,7 +7183,7 @@
         <v>0.77800000000000002</v>
       </c>
       <c r="M44" s="4">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="N44" s="4">
         <v>1189</v>
@@ -7145,16 +7194,16 @@
     </row>
     <row r="45" spans="1:15" ht="17">
       <c r="A45" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B45" s="3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C45" s="4">
-        <v>799</v>
+        <v>1099</v>
       </c>
       <c r="D45" s="4">
-        <v>250</v>
+        <v>335</v>
       </c>
       <c r="E45" s="4">
         <v>549</v>
@@ -7163,7 +7212,7 @@
         <v>0.68700000000000006</v>
       </c>
       <c r="G45" s="4">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="H45" s="4">
         <v>564</v>
@@ -7172,7 +7221,7 @@
         <v>0.70599999999999996</v>
       </c>
       <c r="J45" s="4">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="K45" s="4">
         <v>642</v>
@@ -7181,7 +7230,7 @@
         <v>0.80400000000000005</v>
       </c>
       <c r="M45" s="4">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="N45" s="4">
         <v>684</v>
@@ -7192,16 +7241,16 @@
     </row>
     <row r="46" spans="1:15" ht="17">
       <c r="A46" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B46" s="3">
         <v>2021</v>
       </c>
       <c r="C46" s="4">
-        <v>1099</v>
+        <v>999</v>
       </c>
       <c r="D46" s="4">
-        <v>362</v>
+        <v>295</v>
       </c>
       <c r="E46" s="4">
         <v>737</v>
@@ -7210,7 +7259,7 @@
         <v>0.67100000000000004</v>
       </c>
       <c r="G46" s="4">
-        <v>322</v>
+        <v>255</v>
       </c>
       <c r="H46" s="4">
         <v>777</v>
@@ -7219,7 +7268,7 @@
         <v>0.70699999999999996</v>
       </c>
       <c r="J46" s="4">
-        <v>231</v>
+        <v>156</v>
       </c>
       <c r="K46" s="4">
         <v>868</v>
@@ -7228,7 +7277,7 @@
         <v>0.79</v>
       </c>
       <c r="M46" s="4">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="N46" s="4">
         <v>949</v>
@@ -7239,16 +7288,16 @@
     </row>
     <row r="47" spans="1:15" ht="17">
       <c r="A47" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B47" s="3">
         <v>2022</v>
       </c>
       <c r="C47" s="4">
-        <v>1099</v>
+        <v>799</v>
       </c>
       <c r="D47" s="4">
-        <v>369</v>
+        <v>216</v>
       </c>
       <c r="E47" s="4">
         <v>730</v>
@@ -7257,7 +7306,7 @@
         <v>0.66400000000000003</v>
       </c>
       <c r="G47" s="4">
-        <v>319</v>
+        <v>203</v>
       </c>
       <c r="H47" s="4">
         <v>780</v>
@@ -7266,7 +7315,7 @@
         <v>0.71</v>
       </c>
       <c r="J47" s="4">
-        <v>265</v>
+        <v>131</v>
       </c>
       <c r="K47" s="4">
         <v>834</v>
@@ -7275,7 +7324,7 @@
         <v>0.75900000000000001</v>
       </c>
       <c r="M47" s="4">
-        <v>225</v>
+        <v>86</v>
       </c>
       <c r="N47" s="4">
         <v>874</v>
@@ -7286,16 +7335,16 @@
     </row>
     <row r="48" spans="1:15" ht="17">
       <c r="A48" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B48" s="3">
         <v>2021</v>
       </c>
       <c r="C48" s="4">
-        <v>999</v>
+        <v>799</v>
       </c>
       <c r="D48" s="4">
-        <v>322</v>
+        <v>220</v>
       </c>
       <c r="E48" s="4">
         <v>677</v>
@@ -7304,7 +7353,7 @@
         <v>0.67800000000000005</v>
       </c>
       <c r="G48" s="4">
-        <v>282</v>
+        <v>199</v>
       </c>
       <c r="H48" s="4">
         <v>717</v>
@@ -7313,7 +7362,7 @@
         <v>0.71799999999999997</v>
       </c>
       <c r="J48" s="4">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="K48" s="4">
         <v>808</v>
@@ -7322,7 +7371,7 @@
         <v>0.80900000000000005</v>
       </c>
       <c r="M48" s="4">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="N48" s="4">
         <v>849</v>
@@ -7333,16 +7382,16 @@
     </row>
     <row r="49" spans="1:15" ht="17">
       <c r="A49" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B49" s="3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C49" s="4">
-        <v>1099</v>
+        <v>1599</v>
       </c>
       <c r="D49" s="4">
-        <v>331</v>
+        <v>415</v>
       </c>
       <c r="E49" s="4">
         <v>768</v>
@@ -7351,7 +7400,7 @@
         <v>0.69899999999999995</v>
       </c>
       <c r="G49" s="4">
-        <v>306</v>
+        <v>390</v>
       </c>
       <c r="H49" s="4">
         <v>793</v>
@@ -7360,7 +7409,7 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="J49" s="4">
-        <v>220</v>
+        <v>281</v>
       </c>
       <c r="K49" s="4">
         <v>879</v>
@@ -7369,7 +7418,7 @@
         <v>0.8</v>
       </c>
       <c r="M49" s="4">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="N49" s="4">
         <v>969</v>
@@ -7380,16 +7429,16 @@
     </row>
     <row r="50" spans="1:15" ht="17">
       <c r="A50" s="3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B50" s="3">
         <v>2021</v>
       </c>
       <c r="C50" s="4">
-        <v>699</v>
+        <v>1299</v>
       </c>
       <c r="D50" s="4">
-        <v>205</v>
+        <v>348</v>
       </c>
       <c r="E50" s="4">
         <v>494</v>
@@ -7398,7 +7447,7 @@
         <v>0.70699999999999996</v>
       </c>
       <c r="G50" s="4">
-        <v>190</v>
+        <v>314</v>
       </c>
       <c r="H50" s="4">
         <v>509</v>
@@ -7407,7 +7456,7 @@
         <v>0.72799999999999998</v>
       </c>
       <c r="J50" s="4">
-        <v>116</v>
+        <v>201</v>
       </c>
       <c r="K50" s="4">
         <v>583</v>
@@ -7416,7 +7465,7 @@
         <v>0.83399999999999996</v>
       </c>
       <c r="M50" s="4">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="N50" s="4">
         <v>604</v>
@@ -7427,16 +7476,16 @@
     </row>
     <row r="51" spans="1:15" ht="17">
       <c r="A51" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B51" s="3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C51" s="4">
-        <v>1199</v>
+        <v>699</v>
       </c>
       <c r="D51" s="4">
-        <v>351</v>
+        <v>188</v>
       </c>
       <c r="E51" s="4">
         <v>848</v>
@@ -7445,7 +7494,7 @@
         <v>0.70699999999999996</v>
       </c>
       <c r="G51" s="4">
-        <v>322</v>
+        <v>167</v>
       </c>
       <c r="H51" s="4">
         <v>877</v>
@@ -7454,7 +7503,7 @@
         <v>0.73099999999999998</v>
       </c>
       <c r="J51" s="4">
-        <v>235</v>
+        <v>106</v>
       </c>
       <c r="K51" s="4">
         <v>964</v>
@@ -7463,7 +7512,7 @@
         <v>0.80400000000000005</v>
       </c>
       <c r="M51" s="4">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="N51" s="4">
         <v>1069</v>
@@ -7474,16 +7523,16 @@
     </row>
     <row r="52" spans="1:15" ht="17">
       <c r="A52" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B52" s="3">
         <v>2021</v>
       </c>
       <c r="C52" s="4">
-        <v>799</v>
+        <v>899</v>
       </c>
       <c r="D52" s="4">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E52" s="4">
         <v>557</v>
@@ -7492,7 +7541,7 @@
         <v>0.69699999999999995</v>
       </c>
       <c r="G52" s="4">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H52" s="4">
         <v>586</v>
@@ -7501,7 +7550,7 @@
         <v>0.73299999999999998</v>
       </c>
       <c r="J52" s="4">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="K52" s="4">
         <v>638</v>
@@ -7510,7 +7559,7 @@
         <v>0.79800000000000004</v>
       </c>
       <c r="M52" s="4">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="N52" s="4">
         <v>723</v>
@@ -7521,16 +7570,16 @@
     </row>
     <row r="53" spans="1:15" ht="17">
       <c r="A53" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B53" s="3">
         <v>2021</v>
       </c>
       <c r="C53" s="4">
-        <v>1599</v>
+        <v>799</v>
       </c>
       <c r="D53" s="4">
-        <v>457</v>
+        <v>220</v>
       </c>
       <c r="E53" s="4">
         <v>1142</v>
@@ -7539,7 +7588,7 @@
         <v>0.71399999999999997</v>
       </c>
       <c r="G53" s="4">
-        <v>426</v>
+        <v>184</v>
       </c>
       <c r="H53" s="4">
         <v>1173</v>
@@ -7548,7 +7597,7 @@
         <v>0.73399999999999999</v>
       </c>
       <c r="J53" s="4">
-        <v>320</v>
+        <v>111</v>
       </c>
       <c r="K53" s="4">
         <v>1279</v>
@@ -7557,7 +7606,7 @@
         <v>0.8</v>
       </c>
       <c r="M53" s="4">
-        <v>230</v>
+        <v>71</v>
       </c>
       <c r="N53" s="4">
         <v>1369</v>
@@ -7568,16 +7617,16 @@
     </row>
     <row r="54" spans="1:15" ht="17">
       <c r="A54" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B54" s="3">
         <v>2021</v>
       </c>
       <c r="C54" s="4">
-        <v>1299</v>
+        <v>1499</v>
       </c>
       <c r="D54" s="4">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E54" s="4">
         <v>916</v>
@@ -7586,7 +7635,7 @@
         <v>0.70499999999999996</v>
       </c>
       <c r="G54" s="4">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H54" s="4">
         <v>953</v>
@@ -7595,7 +7644,7 @@
         <v>0.73399999999999999</v>
       </c>
       <c r="J54" s="4">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="K54" s="4">
         <v>1048</v>
@@ -7604,7 +7653,7 @@
         <v>0.80700000000000005</v>
       </c>
       <c r="M54" s="4">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N54" s="4">
         <v>1139</v>
@@ -7615,16 +7664,16 @@
     </row>
     <row r="55" spans="1:15" ht="17">
       <c r="A55" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B55" s="3">
         <v>2021</v>
       </c>
       <c r="C55" s="4">
-        <v>899</v>
+        <v>999</v>
       </c>
       <c r="D55" s="4">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="E55" s="4">
         <v>630</v>
@@ -7633,7 +7682,7 @@
         <v>0.70099999999999996</v>
       </c>
       <c r="G55" s="4">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="H55" s="4">
         <v>665</v>
@@ -7642,7 +7691,7 @@
         <v>0.74</v>
       </c>
       <c r="J55" s="4">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="K55" s="4">
         <v>718</v>
@@ -7651,7 +7700,7 @@
         <v>0.79900000000000004</v>
       </c>
       <c r="M55" s="4">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="N55" s="4">
         <v>799</v>
@@ -7662,16 +7711,16 @@
     </row>
     <row r="56" spans="1:15" ht="17">
       <c r="A56" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B56" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C56" s="4">
-        <v>999</v>
+        <v>1099</v>
       </c>
       <c r="D56" s="4">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E56" s="4">
         <v>729</v>
@@ -7680,7 +7729,7 @@
         <v>0.73</v>
       </c>
       <c r="G56" s="4">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="H56" s="4">
         <v>749</v>
@@ -7689,7 +7738,7 @@
         <v>0.75</v>
       </c>
       <c r="J56" s="4">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="K56" s="4">
         <v>823</v>
@@ -7698,7 +7747,7 @@
         <v>0.82399999999999995</v>
       </c>
       <c r="M56" s="4">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="N56" s="4">
         <v>864</v>
@@ -7709,16 +7758,16 @@
     </row>
     <row r="57" spans="1:15" ht="17">
       <c r="A57" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B57" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C57" s="4">
-        <v>1499</v>
+        <v>1199</v>
       </c>
       <c r="D57" s="4">
-        <v>418</v>
+        <v>284</v>
       </c>
       <c r="E57" s="4">
         <v>1081</v>
@@ -7727,7 +7776,7 @@
         <v>0.72099999999999997</v>
       </c>
       <c r="G57" s="4">
-        <v>374</v>
+        <v>257</v>
       </c>
       <c r="H57" s="4">
         <v>1125</v>
@@ -7736,7 +7785,7 @@
         <v>0.751</v>
       </c>
       <c r="J57" s="4">
-        <v>271</v>
+        <v>185</v>
       </c>
       <c r="K57" s="4">
         <v>1228</v>
@@ -7745,7 +7794,7 @@
         <v>0.81899999999999995</v>
       </c>
       <c r="M57" s="4">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="N57" s="4">
         <v>1319</v>
@@ -7756,16 +7805,16 @@
     </row>
     <row r="58" spans="1:15" ht="17">
       <c r="A58" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B58" s="3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C58" s="4">
-        <v>1399</v>
+        <v>1099</v>
       </c>
       <c r="D58" s="4">
-        <v>366</v>
+        <v>253</v>
       </c>
       <c r="E58" s="4">
         <v>1033</v>
@@ -7774,7 +7823,7 @@
         <v>0.73799999999999999</v>
       </c>
       <c r="G58" s="4">
-        <v>341</v>
+        <v>227</v>
       </c>
       <c r="H58" s="4">
         <v>1058</v>
@@ -7783,7 +7832,7 @@
         <v>0.75600000000000001</v>
       </c>
       <c r="J58" s="4">
-        <v>250</v>
+        <v>137</v>
       </c>
       <c r="K58" s="4">
         <v>1149</v>
@@ -7792,7 +7841,7 @@
         <v>0.82099999999999995</v>
       </c>
       <c r="M58" s="4">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N58" s="4">
         <v>1268</v>
@@ -7812,7 +7861,7 @@
         <v>479</v>
       </c>
       <c r="D59" s="4">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E59" s="4">
         <v>345</v>
@@ -7821,7 +7870,7 @@
         <v>0.72</v>
       </c>
       <c r="G59" s="4">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="H59" s="4">
         <v>362</v>
@@ -7830,7 +7879,7 @@
         <v>0.75600000000000001</v>
       </c>
       <c r="J59" s="4">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K59" s="4">
         <v>409</v>
@@ -7839,7 +7888,7 @@
         <v>0.85399999999999998</v>
       </c>
       <c r="M59" s="4">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N59" s="4">
         <v>444</v>
@@ -7850,16 +7899,16 @@
     </row>
     <row r="60" spans="1:15" ht="17">
       <c r="A60" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B60" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C60" s="4">
-        <v>1099</v>
+        <v>1399</v>
       </c>
       <c r="D60" s="4">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="E60" s="4">
         <v>820</v>
@@ -7868,7 +7917,7 @@
         <v>0.746</v>
       </c>
       <c r="G60" s="4">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="H60" s="4">
         <v>838</v>
@@ -7877,7 +7926,7 @@
         <v>0.76300000000000001</v>
       </c>
       <c r="J60" s="4">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="K60" s="4">
         <v>904</v>
@@ -7886,7 +7935,7 @@
         <v>0.82299999999999995</v>
       </c>
       <c r="M60" s="4">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="N60" s="4">
         <v>969</v>
@@ -7897,16 +7946,16 @@
     </row>
     <row r="61" spans="1:15" ht="17">
       <c r="A61" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B61" s="3">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="C61" s="4">
-        <v>579</v>
+        <v>1099</v>
       </c>
       <c r="D61" s="4">
-        <v>150</v>
+        <v>242</v>
       </c>
       <c r="E61" s="4">
         <v>429</v>
@@ -7915,7 +7964,7 @@
         <v>0.74099999999999999</v>
       </c>
       <c r="G61" s="4">
-        <v>133</v>
+        <v>214</v>
       </c>
       <c r="H61" s="4">
         <v>446</v>
@@ -7924,7 +7973,7 @@
         <v>0.77</v>
       </c>
       <c r="J61" s="4">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="K61" s="4">
         <v>500</v>
@@ -7933,7 +7982,7 @@
         <v>0.86399999999999999</v>
       </c>
       <c r="M61" s="4">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="N61" s="4">
         <v>539</v>
@@ -7944,16 +7993,16 @@
     </row>
     <row r="62" spans="1:15" ht="17">
       <c r="A62" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B62" s="3">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C62" s="4">
-        <v>1099</v>
+        <v>579</v>
       </c>
       <c r="D62" s="4">
-        <v>279</v>
+        <v>125</v>
       </c>
       <c r="E62" s="4">
         <v>820</v>
@@ -7962,7 +8011,7 @@
         <v>0.746</v>
       </c>
       <c r="G62" s="4">
-        <v>242</v>
+        <v>109</v>
       </c>
       <c r="H62" s="4">
         <v>857</v>
@@ -7971,7 +8020,7 @@
         <v>0.78</v>
       </c>
       <c r="J62" s="4">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="K62" s="4">
         <v>909</v>
@@ -7980,7 +8029,7 @@
         <v>0.82699999999999996</v>
       </c>
       <c r="M62" s="4">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="N62" s="4">
         <v>998</v>
@@ -8000,7 +8049,7 @@
         <v>999</v>
       </c>
       <c r="D63" s="4">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="E63" s="4">
         <v>752</v>
@@ -8009,7 +8058,7 @@
         <v>0.753</v>
       </c>
       <c r="G63" s="4">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="H63" s="4">
         <v>789</v>
@@ -8018,7 +8067,7 @@
         <v>0.79</v>
       </c>
       <c r="J63" s="4">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="K63" s="4">
         <v>838</v>
@@ -8027,7 +8076,7 @@
         <v>0.83899999999999997</v>
       </c>
       <c r="M63" s="4">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="N63" s="4">
         <v>899</v>
@@ -8038,16 +8087,16 @@
     </row>
     <row r="64" spans="1:15" ht="17">
       <c r="A64" s="3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B64" s="3">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="C64" s="4">
-        <v>429</v>
+        <v>1299</v>
       </c>
       <c r="D64" s="4">
-        <v>107</v>
+        <v>242</v>
       </c>
       <c r="E64" s="4">
         <v>322</v>
@@ -8056,7 +8105,7 @@
         <v>0.751</v>
       </c>
       <c r="G64" s="4">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="H64" s="4">
         <v>339</v>
@@ -8065,7 +8114,7 @@
         <v>0.79</v>
       </c>
       <c r="J64" s="4">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="K64" s="4">
         <v>375</v>
@@ -8074,7 +8123,7 @@
         <v>0.874</v>
       </c>
       <c r="M64" s="4">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="N64" s="4">
         <v>402</v>
@@ -8085,16 +8134,16 @@
     </row>
     <row r="65" spans="1:15" ht="17">
       <c r="A65" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B65" s="3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C65" s="4">
-        <v>849</v>
+        <v>949</v>
       </c>
       <c r="D65" s="4">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E65" s="4">
         <v>671</v>
@@ -8103,7 +8152,7 @@
         <v>0.79</v>
       </c>
       <c r="G65" s="4">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H65" s="4">
         <v>682</v>
@@ -8132,16 +8181,16 @@
     </row>
     <row r="66" spans="1:15" ht="17">
       <c r="A66" s="3" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B66" s="3">
         <v>2019</v>
       </c>
       <c r="C66" s="4">
-        <v>749</v>
+        <v>1099</v>
       </c>
       <c r="D66" s="4">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="E66" s="4">
         <v>587</v>
@@ -8150,7 +8199,7 @@
         <v>0.78400000000000003</v>
       </c>
       <c r="G66" s="4">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="H66" s="4">
         <v>603</v>
@@ -8159,7 +8208,7 @@
         <v>0.80500000000000005</v>
       </c>
       <c r="J66" s="4">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K66" s="4">
         <v>649</v>
@@ -8168,7 +8217,7 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="M66" s="4">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="N66" s="4">
         <v>698</v>
@@ -8179,16 +8228,16 @@
     </row>
     <row r="67" spans="1:15" ht="17">
       <c r="A67" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B67" s="3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C67" s="4">
-        <v>1249</v>
+        <v>849</v>
       </c>
       <c r="D67" s="4">
-        <v>258</v>
+        <v>162</v>
       </c>
       <c r="E67" s="4">
         <v>991</v>
@@ -8197,7 +8246,7 @@
         <v>0.79300000000000004</v>
       </c>
       <c r="G67" s="4">
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="H67" s="4">
         <v>1007</v>
@@ -8206,7 +8255,7 @@
         <v>0.80600000000000005</v>
       </c>
       <c r="J67" s="4">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="K67" s="4">
         <v>1084</v>
@@ -8215,7 +8264,7 @@
         <v>0.86799999999999999</v>
       </c>
       <c r="M67" s="4">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="N67" s="4">
         <v>1166</v>
@@ -8226,16 +8275,16 @@
     </row>
     <row r="68" spans="1:15" ht="17">
       <c r="A68" s="3" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B68" s="3">
         <v>2020</v>
       </c>
       <c r="C68" s="4">
-        <v>949</v>
+        <v>749</v>
       </c>
       <c r="D68" s="4">
-        <v>208</v>
+        <v>146</v>
       </c>
       <c r="E68" s="4">
         <v>741</v>
@@ -8244,7 +8293,7 @@
         <v>0.78100000000000003</v>
       </c>
       <c r="G68" s="4">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="H68" s="4">
         <v>768</v>
@@ -8253,7 +8302,7 @@
         <v>0.80900000000000005</v>
       </c>
       <c r="J68" s="4">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="K68" s="4">
         <v>817</v>
@@ -8262,7 +8311,7 @@
         <v>0.86099999999999999</v>
       </c>
       <c r="M68" s="4">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="N68" s="4">
         <v>888</v>
@@ -8273,16 +8322,16 @@
     </row>
     <row r="69" spans="1:15" ht="17">
       <c r="A69" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B69" s="3">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C69" s="4">
-        <v>1299</v>
+        <v>749</v>
       </c>
       <c r="D69" s="4">
-        <v>285</v>
+        <v>140</v>
       </c>
       <c r="E69" s="4">
         <v>1014</v>
@@ -8291,7 +8340,7 @@
         <v>0.78100000000000003</v>
       </c>
       <c r="G69" s="4">
-        <v>247</v>
+        <v>124</v>
       </c>
       <c r="H69" s="4">
         <v>1052</v>
@@ -8300,7 +8349,7 @@
         <v>0.81</v>
       </c>
       <c r="J69" s="4">
-        <v>195</v>
+        <v>90</v>
       </c>
       <c r="K69" s="4">
         <v>1104</v>
@@ -8309,7 +8358,7 @@
         <v>0.85</v>
       </c>
       <c r="M69" s="4">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="N69" s="4">
         <v>1169</v>
@@ -8320,16 +8369,16 @@
     </row>
     <row r="70" spans="1:15" ht="17">
       <c r="A70" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B70" s="3">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C70" s="4">
         <v>849</v>
       </c>
       <c r="D70" s="4">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="E70" s="4">
         <v>663</v>
@@ -8338,7 +8387,7 @@
         <v>0.78100000000000003</v>
       </c>
       <c r="G70" s="4">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="H70" s="4">
         <v>688</v>
@@ -8347,7 +8396,7 @@
         <v>0.81</v>
       </c>
       <c r="J70" s="4">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="K70" s="4">
         <v>737</v>
@@ -8356,7 +8405,7 @@
         <v>0.86799999999999999</v>
       </c>
       <c r="M70" s="4">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="N70" s="4">
         <v>788</v>
@@ -8367,16 +8416,16 @@
     </row>
     <row r="71" spans="1:15" ht="17">
       <c r="A71" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B71" s="3">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C71" s="4">
-        <v>849</v>
+        <v>429</v>
       </c>
       <c r="D71" s="4">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="E71" s="4">
         <v>675</v>
@@ -8385,7 +8434,7 @@
         <v>0.79500000000000004</v>
       </c>
       <c r="G71" s="4">
-        <v>151</v>
+        <v>68</v>
       </c>
       <c r="H71" s="4">
         <v>698</v>
@@ -8394,7 +8443,7 @@
         <v>0.82199999999999995</v>
       </c>
       <c r="J71" s="4">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="K71" s="4">
         <v>748</v>
@@ -8403,7 +8452,7 @@
         <v>0.88100000000000001</v>
       </c>
       <c r="M71" s="4">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="N71" s="4">
         <v>803</v>
@@ -8414,16 +8463,16 @@
     </row>
     <row r="72" spans="1:15" ht="17">
       <c r="A72" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B72" s="3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C72" s="4">
-        <v>1099</v>
+        <v>849</v>
       </c>
       <c r="D72" s="4">
-        <v>217</v>
+        <v>153</v>
       </c>
       <c r="E72" s="4">
         <v>882</v>
@@ -8432,7 +8481,7 @@
         <v>0.80300000000000005</v>
       </c>
       <c r="G72" s="4">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="H72" s="4">
         <v>903</v>
@@ -8441,7 +8490,7 @@
         <v>0.82199999999999995</v>
       </c>
       <c r="J72" s="4">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="K72" s="4">
         <v>954</v>
@@ -8450,7 +8499,7 @@
         <v>0.86799999999999999</v>
       </c>
       <c r="M72" s="4">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="N72" s="4">
         <v>1018</v>
@@ -8461,16 +8510,16 @@
     </row>
     <row r="73" spans="1:15" ht="17">
       <c r="A73" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B73" s="3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C73" s="4">
-        <v>1449</v>
+        <v>799</v>
       </c>
       <c r="D73" s="4">
-        <v>269</v>
+        <v>140</v>
       </c>
       <c r="E73" s="4">
         <v>1180</v>
@@ -8479,7 +8528,7 @@
         <v>0.81399999999999995</v>
       </c>
       <c r="G73" s="4">
-        <v>258</v>
+        <v>120</v>
       </c>
       <c r="H73" s="4">
         <v>1191</v>
@@ -8488,7 +8537,7 @@
         <v>0.82199999999999995</v>
       </c>
       <c r="J73" s="4">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="K73" s="4">
         <v>1272</v>
@@ -8497,7 +8546,7 @@
         <v>0.878</v>
       </c>
       <c r="M73" s="4">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="N73" s="4">
         <v>1358</v>
@@ -8508,16 +8557,16 @@
     </row>
     <row r="74" spans="1:15" ht="17">
       <c r="A74" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B74" s="3">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C74" s="4">
-        <v>799</v>
+        <v>699</v>
       </c>
       <c r="D74" s="4">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="E74" s="4">
         <v>631</v>
@@ -8526,7 +8575,7 @@
         <v>0.79</v>
       </c>
       <c r="G74" s="4">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="H74" s="4">
         <v>659</v>
@@ -8535,7 +8584,7 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="J74" s="4">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="K74" s="4">
         <v>708</v>
@@ -8544,7 +8593,7 @@
         <v>0.88600000000000001</v>
       </c>
       <c r="M74" s="4">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="N74" s="4">
         <v>743</v>
@@ -8555,16 +8604,16 @@
     </row>
     <row r="75" spans="1:15" ht="17">
       <c r="A75" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B75" s="3">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C75" s="4">
-        <v>749</v>
+        <v>1349</v>
       </c>
       <c r="D75" s="4">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="E75" s="4">
         <v>597</v>
@@ -8573,7 +8622,7 @@
         <v>0.79700000000000004</v>
       </c>
       <c r="G75" s="4">
-        <v>129</v>
+        <v>194</v>
       </c>
       <c r="H75" s="4">
         <v>620</v>
@@ -8582,7 +8631,7 @@
         <v>0.82799999999999996</v>
       </c>
       <c r="J75" s="4">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="K75" s="4">
         <v>658</v>
@@ -8591,7 +8640,7 @@
         <v>0.879</v>
       </c>
       <c r="M75" s="4">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="N75" s="4">
         <v>708</v>
@@ -8611,7 +8660,7 @@
         <v>1149</v>
       </c>
       <c r="D76" s="4">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="E76" s="4">
         <v>939</v>
@@ -8620,7 +8669,7 @@
         <v>0.81699999999999995</v>
       </c>
       <c r="G76" s="4">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="H76" s="4">
         <v>955</v>
@@ -8629,7 +8678,7 @@
         <v>0.83099999999999996</v>
       </c>
       <c r="J76" s="4">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="K76" s="4">
         <v>1004</v>
@@ -8638,7 +8687,7 @@
         <v>0.874</v>
       </c>
       <c r="M76" s="4">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="N76" s="4">
         <v>1068</v>
@@ -8649,16 +8698,16 @@
     </row>
     <row r="77" spans="1:15" ht="17">
       <c r="A77" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B77" s="3">
         <v>2019</v>
       </c>
       <c r="C77" s="4">
-        <v>1349</v>
+        <v>1249</v>
       </c>
       <c r="D77" s="4">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="E77" s="4">
         <v>1107</v>
@@ -8667,7 +8716,7 @@
         <v>0.82099999999999995</v>
       </c>
       <c r="G77" s="4">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="H77" s="4">
         <v>1123</v>
@@ -8676,7 +8725,7 @@
         <v>0.83199999999999996</v>
       </c>
       <c r="J77" s="4">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="K77" s="4">
         <v>1194</v>
@@ -8685,7 +8734,7 @@
         <v>0.88500000000000001</v>
       </c>
       <c r="M77" s="4">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="N77" s="4">
         <v>1249</v>
@@ -8696,16 +8745,16 @@
     </row>
     <row r="78" spans="1:15" ht="17">
       <c r="A78" s="3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B78" s="3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C78" s="4">
-        <v>699</v>
+        <v>449</v>
       </c>
       <c r="D78" s="4">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c r="E78" s="4">
         <v>553</v>
@@ -8714,7 +8763,7 @@
         <v>0.79100000000000004</v>
       </c>
       <c r="G78" s="4">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="H78" s="4">
         <v>586</v>
@@ -8723,7 +8772,7 @@
         <v>0.83799999999999997</v>
       </c>
       <c r="J78" s="4">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="K78" s="4">
         <v>628</v>
@@ -8732,7 +8781,7 @@
         <v>0.89800000000000002</v>
       </c>
       <c r="M78" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N78" s="4">
         <v>649</v>
@@ -8743,16 +8792,16 @@
     </row>
     <row r="79" spans="1:15" ht="17">
       <c r="A79" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B79" s="3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C79" s="4">
-        <v>999</v>
+        <v>699</v>
       </c>
       <c r="D79" s="4">
-        <v>220</v>
+        <v>114</v>
       </c>
       <c r="E79" s="4">
         <v>779</v>
@@ -8761,7 +8810,7 @@
         <v>0.78</v>
       </c>
       <c r="G79" s="4">
-        <v>162</v>
+        <v>92</v>
       </c>
       <c r="H79" s="4">
         <v>837</v>
@@ -8770,7 +8819,7 @@
         <v>0.83799999999999997</v>
       </c>
       <c r="J79" s="4">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="K79" s="4">
         <v>884</v>
@@ -8779,7 +8828,7 @@
         <v>0.88500000000000001</v>
       </c>
       <c r="M79" s="4">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="N79" s="4">
         <v>928</v>
@@ -8790,16 +8839,16 @@
     </row>
     <row r="80" spans="1:15" ht="17">
       <c r="A80" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B80" s="3">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C80" s="4">
-        <v>699</v>
+        <v>1449</v>
       </c>
       <c r="D80" s="4">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="E80" s="4">
         <v>570</v>
@@ -8808,7 +8857,7 @@
         <v>0.81499999999999995</v>
       </c>
       <c r="G80" s="4">
-        <v>103</v>
+        <v>188</v>
       </c>
       <c r="H80" s="4">
         <v>596</v>
@@ -8817,7 +8866,7 @@
         <v>0.85299999999999998</v>
       </c>
       <c r="J80" s="4">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="K80" s="4">
         <v>636</v>
@@ -8826,7 +8875,7 @@
         <v>0.91</v>
       </c>
       <c r="M80" s="4">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="N80" s="4">
         <v>663</v>
@@ -8837,16 +8886,16 @@
     </row>
     <row r="81" spans="1:15" ht="17">
       <c r="A81" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B81" s="3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C81" s="4">
-        <v>799</v>
+        <v>999</v>
       </c>
       <c r="D81" s="4">
-        <v>124</v>
+        <v>188</v>
       </c>
       <c r="E81" s="4">
         <v>675</v>
@@ -8855,7 +8904,7 @@
         <v>0.84499999999999997</v>
       </c>
       <c r="G81" s="4">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="H81" s="4">
         <v>686</v>
@@ -8864,7 +8913,7 @@
         <v>0.85899999999999999</v>
       </c>
       <c r="J81" s="4">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="K81" s="4">
         <v>728</v>
@@ -8873,7 +8922,7 @@
         <v>0.91100000000000003</v>
       </c>
       <c r="M81" s="4">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N81" s="4">
         <v>765</v>
@@ -8884,16 +8933,16 @@
     </row>
     <row r="82" spans="1:15" ht="17">
       <c r="A82" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B82" s="3">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="C82" s="4">
-        <v>899</v>
+        <v>549</v>
       </c>
       <c r="D82" s="4">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="E82" s="4">
         <v>764</v>
@@ -8902,7 +8951,7 @@
         <v>0.85</v>
       </c>
       <c r="G82" s="4">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="H82" s="4">
         <v>775</v>
@@ -8911,7 +8960,7 @@
         <v>0.86199999999999999</v>
       </c>
       <c r="J82" s="4">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="K82" s="4">
         <v>819</v>
@@ -8920,7 +8969,7 @@
         <v>0.91100000000000003</v>
       </c>
       <c r="M82" s="4">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="N82" s="4">
         <v>862</v>
@@ -8931,16 +8980,16 @@
     </row>
     <row r="83" spans="1:15" ht="17">
       <c r="A83" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B83" s="3">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C83" s="4">
-        <v>449</v>
+        <v>899</v>
       </c>
       <c r="D83" s="4">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="E83" s="4">
         <v>377</v>
@@ -8949,7 +8998,7 @@
         <v>0.84</v>
       </c>
       <c r="G83" s="4">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="H83" s="4">
         <v>389</v>
@@ -8958,7 +9007,7 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="J83" s="4">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="K83" s="4">
         <v>411</v>
@@ -8967,7 +9016,7 @@
         <v>0.91500000000000004</v>
       </c>
       <c r="M83" s="4">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="N83" s="4">
         <v>431</v>
@@ -8978,16 +9027,16 @@
     </row>
     <row r="84" spans="1:15" ht="17">
       <c r="A84" s="3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B84" s="3">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="C84" s="4">
-        <v>1099</v>
+        <v>399</v>
       </c>
       <c r="D84" s="4">
-        <v>162</v>
+        <v>56</v>
       </c>
       <c r="E84" s="4">
         <v>937</v>
@@ -8996,7 +9045,7 @@
         <v>0.85299999999999998</v>
       </c>
       <c r="G84" s="4">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="H84" s="4">
         <v>956</v>
@@ -9005,7 +9054,7 @@
         <v>0.87</v>
       </c>
       <c r="J84" s="4">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="K84" s="4">
         <v>1012</v>
@@ -9014,7 +9063,7 @@
         <v>0.92100000000000004</v>
       </c>
       <c r="M84" s="4">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="N84" s="4">
         <v>1056</v>
@@ -9034,7 +9083,7 @@
         <v>1249</v>
       </c>
       <c r="D85" s="4">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="E85" s="4">
         <v>1066</v>
@@ -9043,7 +9092,7 @@
         <v>0.85299999999999998</v>
       </c>
       <c r="G85" s="4">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="H85" s="4">
         <v>1087</v>
@@ -9052,7 +9101,7 @@
         <v>0.87</v>
       </c>
       <c r="J85" s="4">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="K85" s="4">
         <v>1143</v>
@@ -9061,7 +9110,7 @@
         <v>0.91500000000000004</v>
       </c>
       <c r="M85" s="4">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N85" s="4">
         <v>1201</v>
@@ -9072,16 +9121,16 @@
     </row>
     <row r="86" spans="1:15" ht="17">
       <c r="A86" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B86" s="3">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C86" s="4">
-        <v>549</v>
+        <v>1099</v>
       </c>
       <c r="D86" s="4">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="E86" s="4">
         <v>457</v>
@@ -9090,7 +9139,7 @@
         <v>0.83199999999999996</v>
       </c>
       <c r="G86" s="4">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="H86" s="4">
         <v>478</v>
@@ -9099,7 +9148,7 @@
         <v>0.871</v>
       </c>
       <c r="J86" s="4">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="K86" s="4">
         <v>501</v>
@@ -9108,7 +9157,7 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="M86" s="4">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="N86" s="4">
         <v>528</v>
@@ -9119,16 +9168,16 @@
     </row>
     <row r="87" spans="1:15" ht="17">
       <c r="A87" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B87" s="3">
         <v>2018</v>
       </c>
       <c r="C87" s="4">
-        <v>749</v>
+        <v>799</v>
       </c>
       <c r="D87" s="4">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E87" s="4">
         <v>646</v>
@@ -9137,7 +9186,7 @@
         <v>0.86199999999999999</v>
       </c>
       <c r="G87" s="4">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H87" s="4">
         <v>657</v>
@@ -9146,7 +9195,7 @@
         <v>0.877</v>
       </c>
       <c r="J87" s="4">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K87" s="4">
         <v>693</v>
@@ -9155,7 +9204,7 @@
         <v>0.92500000000000004</v>
       </c>
       <c r="M87" s="4">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N87" s="4">
         <v>721</v>
@@ -9175,7 +9224,7 @@
         <v>1449</v>
       </c>
       <c r="D88" s="4">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="E88" s="4">
         <v>1261</v>
@@ -9184,7 +9233,7 @@
         <v>0.87</v>
       </c>
       <c r="G88" s="4">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="H88" s="4">
         <v>1271</v>
@@ -9193,7 +9242,7 @@
         <v>0.877</v>
       </c>
       <c r="J88" s="4">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="K88" s="4">
         <v>1337</v>
@@ -9202,7 +9251,7 @@
         <v>0.92300000000000004</v>
       </c>
       <c r="M88" s="4">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="N88" s="4">
         <v>1369</v>
@@ -9213,16 +9262,16 @@
     </row>
     <row r="89" spans="1:15" ht="17">
       <c r="A89" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B89" s="3">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C89" s="4">
-        <v>399</v>
+        <v>749</v>
       </c>
       <c r="D89" s="4">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E89" s="4">
         <v>337</v>
@@ -9231,7 +9280,7 @@
         <v>0.84499999999999997</v>
       </c>
       <c r="G89" s="4">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="H89" s="4">
         <v>353</v>
@@ -9240,7 +9289,7 @@
         <v>0.88500000000000001</v>
       </c>
       <c r="J89" s="4">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="K89" s="4">
         <v>371</v>
@@ -9249,7 +9298,7 @@
         <v>0.93</v>
       </c>
       <c r="M89" s="4">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N89" s="4">
         <v>385</v>
@@ -9287,7 +9336,7 @@
         <v>0.90800000000000003</v>
       </c>
       <c r="J90" s="4">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K90" s="4">
         <v>884</v>
@@ -9307,16 +9356,16 @@
     </row>
     <row r="91" spans="1:15" ht="17">
       <c r="A91" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B91" s="3">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C91" s="4">
         <v>1149</v>
       </c>
       <c r="D91" s="4">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="E91" s="4">
         <v>1025</v>
@@ -9325,7 +9374,7 @@
         <v>0.89200000000000002</v>
       </c>
       <c r="G91" s="4">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H91" s="4">
         <v>1046</v>
@@ -9334,7 +9383,7 @@
         <v>0.91</v>
       </c>
       <c r="J91" s="4">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K91" s="4">
         <v>1087</v>
@@ -9343,7 +9392,7 @@
         <v>0.94599999999999995</v>
       </c>
       <c r="M91" s="4">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N91" s="4">
         <v>1114</v>
@@ -9354,16 +9403,16 @@
     </row>
     <row r="92" spans="1:15" ht="17">
       <c r="A92" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B92" s="3">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C92" s="4">
-        <v>1349</v>
+        <v>799</v>
       </c>
       <c r="D92" s="4">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="E92" s="4">
         <v>1214</v>
@@ -9372,7 +9421,7 @@
         <v>0.9</v>
       </c>
       <c r="G92" s="4">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="H92" s="4">
         <v>1230</v>
@@ -9381,7 +9430,7 @@
         <v>0.91200000000000003</v>
       </c>
       <c r="J92" s="4">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="K92" s="4">
         <v>1259</v>
@@ -9390,7 +9439,7 @@
         <v>0.93300000000000005</v>
       </c>
       <c r="M92" s="4">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="N92" s="4">
         <v>1259</v>
@@ -9401,16 +9450,16 @@
     </row>
     <row r="93" spans="1:15" ht="17">
       <c r="A93" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B93" s="3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C93" s="4">
         <v>1149</v>
       </c>
       <c r="D93" s="4">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E93" s="4">
         <v>1036</v>
@@ -9419,7 +9468,7 @@
         <v>0.90200000000000002</v>
       </c>
       <c r="G93" s="4">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="H93" s="4">
         <v>1048</v>
@@ -9428,7 +9477,7 @@
         <v>0.91200000000000003</v>
       </c>
       <c r="J93" s="4">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K93" s="4">
         <v>1089</v>
@@ -9437,7 +9486,7 @@
         <v>0.94799999999999995</v>
       </c>
       <c r="M93" s="4">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="N93" s="4">
         <v>1104</v>
@@ -9448,16 +9497,16 @@
     </row>
     <row r="94" spans="1:15" ht="17">
       <c r="A94" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B94" s="3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C94" s="4">
         <v>999</v>
       </c>
       <c r="D94" s="4">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E94" s="4">
         <v>902</v>
@@ -9466,7 +9515,7 @@
         <v>0.90300000000000002</v>
       </c>
       <c r="G94" s="4">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H94" s="4">
         <v>912</v>
@@ -9475,7 +9524,7 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="J94" s="4">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K94" s="4">
         <v>947</v>
@@ -9484,7 +9533,7 @@
         <v>0.94799999999999995</v>
       </c>
       <c r="M94" s="4">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N94" s="4">
         <v>969</v>
@@ -9495,16 +9544,16 @@
     </row>
     <row r="95" spans="1:15" ht="17">
       <c r="A95" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B95" s="3">
         <v>2018</v>
       </c>
       <c r="C95" s="4">
-        <v>999</v>
+        <v>1349</v>
       </c>
       <c r="D95" s="4">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="E95" s="4">
         <v>891</v>
@@ -9513,7 +9562,7 @@
         <v>0.89200000000000002</v>
       </c>
       <c r="G95" s="4">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="H95" s="4">
         <v>914</v>
@@ -9522,7 +9571,7 @@
         <v>0.91500000000000004</v>
       </c>
       <c r="J95" s="4">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K95" s="4">
         <v>949</v>
@@ -9531,7 +9580,7 @@
         <v>0.95</v>
       </c>
       <c r="M95" s="4">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N95" s="4">
         <v>973</v>
@@ -9542,16 +9591,16 @@
     </row>
     <row r="96" spans="1:15" ht="17">
       <c r="A96" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B96" s="3">
         <v>2017</v>
       </c>
       <c r="C96" s="4">
-        <v>799</v>
+        <v>999</v>
       </c>
       <c r="D96" s="4">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="E96" s="4">
         <v>732</v>
@@ -9560,7 +9609,7 @@
         <v>0.91600000000000004</v>
       </c>
       <c r="G96" s="4">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="H96" s="4">
         <v>737</v>
@@ -9569,7 +9618,7 @@
         <v>0.92200000000000004</v>
       </c>
       <c r="J96" s="4">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K96" s="4">
         <v>757</v>
@@ -9578,7 +9627,7 @@
         <v>0.94699999999999995</v>
       </c>
       <c r="M96" s="4">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N96" s="4">
         <v>781</v>
@@ -9598,7 +9647,7 @@
         <v>849</v>
       </c>
       <c r="D97" s="4">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E97" s="4">
         <v>788</v>
@@ -9607,7 +9656,7 @@
         <v>0.92800000000000005</v>
       </c>
       <c r="G97" s="4">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="H97" s="4">
         <v>793</v>
@@ -9616,7 +9665,7 @@
         <v>0.93400000000000005</v>
       </c>
       <c r="J97" s="4">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K97" s="4">
         <v>815</v>
@@ -9645,7 +9694,7 @@
         <v>699</v>
       </c>
       <c r="D98" s="4">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E98" s="4">
         <v>653</v>
@@ -9654,7 +9703,7 @@
         <v>0.93400000000000005</v>
       </c>
       <c r="G98" s="4">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H98" s="4">
         <v>661</v>
@@ -9663,7 +9712,7 @@
         <v>0.94599999999999995</v>
       </c>
       <c r="J98" s="4">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K98" s="4">
         <v>676</v>
@@ -9672,7 +9721,7 @@
         <v>0.96699999999999997</v>
       </c>
       <c r="M98" s="4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N98" s="4">
         <v>688</v>
@@ -9692,7 +9741,7 @@
         <v>769</v>
       </c>
       <c r="D99" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E99" s="4">
         <v>740</v>
@@ -9974,7 +10023,7 @@
         <v>849</v>
       </c>
       <c r="D105" s="4">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E105" s="4">
         <v>832</v>
@@ -9983,7 +10032,7 @@
         <v>0.98</v>
       </c>
       <c r="G105" s="4">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H105" s="4">
         <v>835</v>
@@ -10012,16 +10061,16 @@
     </row>
     <row r="106" spans="1:15" ht="17">
       <c r="A106" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B106" s="3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C106" s="4">
-        <v>949</v>
+        <v>499</v>
       </c>
       <c r="D106" s="4">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E106" s="4">
         <v>930</v>
@@ -10030,7 +10079,7 @@
         <v>0.98</v>
       </c>
       <c r="G106" s="4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H106" s="4">
         <v>934</v>
@@ -10039,7 +10088,7 @@
         <v>0.98399999999999999</v>
       </c>
       <c r="J106" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K106" s="4">
         <v>940</v>
@@ -10048,7 +10097,7 @@
         <v>0.99099999999999999</v>
       </c>
       <c r="M106" s="4">
-        <v>4</v>
+        <v>5.74</v>
       </c>
       <c r="N106" s="4">
         <v>945</v>
@@ -10068,7 +10117,7 @@
         <v>749</v>
       </c>
       <c r="D107" s="4">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E107" s="4">
         <v>737</v>
@@ -10077,7 +10126,7 @@
         <v>0.98399999999999999</v>
       </c>
       <c r="G107" s="4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H107" s="4">
         <v>740</v>
@@ -10086,7 +10135,7 @@
         <v>0.98799999999999999</v>
       </c>
       <c r="J107" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K107" s="4">
         <v>744</v>
@@ -10106,16 +10155,16 @@
     </row>
     <row r="108" spans="1:15" ht="17">
       <c r="A108" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B108" s="3">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C108" s="4">
-        <v>499</v>
+        <v>949</v>
       </c>
       <c r="D108" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E108" s="4">
         <v>497</v>
@@ -10124,7 +10173,7 @@
         <v>0.996</v>
       </c>
       <c r="G108" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H108" s="4">
         <v>497</v>
@@ -10133,7 +10182,7 @@
         <v>0.996</v>
       </c>
       <c r="J108" s="4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K108" s="4">
         <v>498</v>
@@ -10142,7 +10191,7 @@
         <v>0.998</v>
       </c>
       <c r="M108" s="4">
-        <v>5.74</v>
+        <v>4</v>
       </c>
       <c r="N108" s="4">
         <v>493.26</v>
@@ -10348,8 +10397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529C1CFA-1B6A-8144-AC18-20D00DF21916}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10444,7 +10493,7 @@
         <v>1099</v>
       </c>
       <c r="D3" s="4">
-        <v>550</v>
+        <v>481</v>
       </c>
       <c r="E3" s="4">
         <v>549</v>
@@ -10453,7 +10502,7 @@
         <v>0.5</v>
       </c>
       <c r="G3" s="4">
-        <v>489</v>
+        <v>440</v>
       </c>
       <c r="H3" s="4">
         <v>610</v>
@@ -10462,7 +10511,7 @@
         <v>0.55500000000000005</v>
       </c>
       <c r="J3" s="4">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K3" s="4">
         <v>743</v>
@@ -10471,7 +10520,7 @@
         <v>0.67600000000000005</v>
       </c>
       <c r="M3" s="4">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="N3" s="4">
         <v>929</v>
@@ -10482,16 +10531,16 @@
     </row>
     <row r="4" spans="1:15" ht="17">
       <c r="A4" s="3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B4" s="3">
         <v>2024</v>
       </c>
       <c r="C4" s="4">
-        <v>1099</v>
+        <v>999</v>
       </c>
       <c r="D4" s="4">
-        <v>535</v>
+        <v>416</v>
       </c>
       <c r="E4" s="4">
         <v>564</v>
@@ -10500,7 +10549,7 @@
         <v>0.51300000000000001</v>
       </c>
       <c r="G4" s="4">
-        <v>489</v>
+        <v>379</v>
       </c>
       <c r="H4" s="4">
         <v>610</v>
@@ -10509,7 +10558,7 @@
         <v>0.55500000000000005</v>
       </c>
       <c r="J4" s="4">
-        <v>366</v>
+        <v>291</v>
       </c>
       <c r="K4" s="4">
         <v>733</v>
@@ -10518,7 +10567,7 @@
         <v>0.66700000000000004</v>
       </c>
       <c r="M4" s="4">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="N4" s="4">
         <v>944</v>
@@ -10529,16 +10578,16 @@
     </row>
     <row r="5" spans="1:15" ht="17">
       <c r="A5" s="3" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B5" s="3">
         <v>2024</v>
       </c>
       <c r="C5" s="4">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="D5" s="4">
-        <v>575</v>
+        <v>501</v>
       </c>
       <c r="E5" s="4">
         <v>624</v>
@@ -10547,7 +10596,7 @@
         <v>0.52</v>
       </c>
       <c r="G5" s="4">
-        <v>529</v>
+        <v>460</v>
       </c>
       <c r="H5" s="4">
         <v>670</v>
@@ -10556,7 +10605,7 @@
         <v>0.55900000000000005</v>
       </c>
       <c r="J5" s="4">
-        <v>405</v>
+        <v>375</v>
       </c>
       <c r="K5" s="4">
         <v>794</v>
@@ -10565,7 +10614,7 @@
         <v>0.66200000000000003</v>
       </c>
       <c r="M5" s="4">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="N5" s="4">
         <v>1034</v>
@@ -10576,16 +10625,16 @@
     </row>
     <row r="6" spans="1:15" ht="17">
       <c r="A6" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B6" s="3">
         <v>2024</v>
       </c>
       <c r="C6" s="4">
-        <v>1919</v>
+        <v>1199</v>
       </c>
       <c r="D6" s="4">
-        <v>930</v>
+        <v>471</v>
       </c>
       <c r="E6" s="4">
         <v>989</v>
@@ -10594,7 +10643,7 @@
         <v>0.51500000000000001</v>
       </c>
       <c r="G6" s="4">
-        <v>839</v>
+        <v>450</v>
       </c>
       <c r="H6" s="4">
         <v>1080</v>
@@ -10603,7 +10652,7 @@
         <v>0.56299999999999994</v>
       </c>
       <c r="J6" s="4">
-        <v>581</v>
+        <v>395</v>
       </c>
       <c r="K6" s="4">
         <v>1338</v>
@@ -10612,7 +10661,7 @@
         <v>0.69699999999999995</v>
       </c>
       <c r="M6" s="4">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="N6" s="4">
         <v>1639</v>
@@ -10623,16 +10672,16 @@
     </row>
     <row r="7" spans="1:15" ht="17">
       <c r="A7" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B7" s="3">
         <v>2024</v>
       </c>
       <c r="C7" s="4">
-        <v>1319</v>
+        <v>1099</v>
       </c>
       <c r="D7" s="4">
-        <v>610</v>
+        <v>431</v>
       </c>
       <c r="E7" s="4">
         <v>709</v>
@@ -10641,7 +10690,7 @@
         <v>0.53800000000000003</v>
       </c>
       <c r="G7" s="4">
-        <v>564</v>
+        <v>411</v>
       </c>
       <c r="H7" s="4">
         <v>755</v>
@@ -10650,7 +10699,7 @@
         <v>0.57199999999999995</v>
       </c>
       <c r="J7" s="4">
-        <v>440</v>
+        <v>355</v>
       </c>
       <c r="K7" s="4">
         <v>879</v>
@@ -10659,7 +10708,7 @@
         <v>0.66600000000000004</v>
       </c>
       <c r="M7" s="4">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="N7" s="4">
         <v>1144</v>
@@ -10670,16 +10719,16 @@
     </row>
     <row r="8" spans="1:15" ht="17">
       <c r="A8" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B8" s="3">
         <v>2024</v>
       </c>
       <c r="C8" s="4">
-        <v>999</v>
+        <v>1319</v>
       </c>
       <c r="D8" s="4">
-        <v>485</v>
+        <v>506</v>
       </c>
       <c r="E8" s="4">
         <v>514</v>
@@ -10688,7 +10737,7 @@
         <v>0.51500000000000001</v>
       </c>
       <c r="G8" s="4">
-        <v>426</v>
+        <v>485</v>
       </c>
       <c r="H8" s="4">
         <v>573</v>
@@ -10697,7 +10746,7 @@
         <v>0.57399999999999995</v>
       </c>
       <c r="J8" s="4">
-        <v>291</v>
+        <v>430</v>
       </c>
       <c r="K8" s="4">
         <v>708</v>
@@ -10706,7 +10755,7 @@
         <v>0.70899999999999996</v>
       </c>
       <c r="M8" s="4">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="N8" s="4">
         <v>839</v>
@@ -10717,16 +10766,16 @@
     </row>
     <row r="9" spans="1:15" ht="17">
       <c r="A9" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B9" s="3">
         <v>2024</v>
       </c>
       <c r="C9" s="4">
-        <v>1799</v>
+        <v>799</v>
       </c>
       <c r="D9" s="4">
-        <v>855</v>
+        <v>311</v>
       </c>
       <c r="E9" s="4">
         <v>944</v>
@@ -10735,7 +10784,7 @@
         <v>0.52500000000000002</v>
       </c>
       <c r="G9" s="4">
-        <v>764</v>
+        <v>286</v>
       </c>
       <c r="H9" s="4">
         <v>1035</v>
@@ -10744,7 +10793,7 @@
         <v>0.57499999999999996</v>
       </c>
       <c r="J9" s="4">
-        <v>506</v>
+        <v>230</v>
       </c>
       <c r="K9" s="4">
         <v>1293</v>
@@ -10753,7 +10802,7 @@
         <v>0.71899999999999997</v>
       </c>
       <c r="M9" s="4">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="N9" s="4">
         <v>1539</v>
@@ -10764,16 +10813,16 @@
     </row>
     <row r="10" spans="1:15" ht="17">
       <c r="A10" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B10" s="3">
         <v>2024</v>
       </c>
       <c r="C10" s="4">
-        <v>799</v>
+        <v>899</v>
       </c>
       <c r="D10" s="4">
-        <v>361</v>
+        <v>331</v>
       </c>
       <c r="E10" s="4">
         <v>438</v>
@@ -10782,7 +10831,7 @@
         <v>0.54800000000000004</v>
       </c>
       <c r="G10" s="4">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="H10" s="4">
         <v>463</v>
@@ -10791,7 +10840,7 @@
         <v>0.57899999999999996</v>
       </c>
       <c r="J10" s="4">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K10" s="4">
         <v>553</v>
@@ -10800,7 +10849,7 @@
         <v>0.69199999999999995</v>
       </c>
       <c r="M10" s="4">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N10" s="4">
         <v>699</v>
@@ -10811,16 +10860,16 @@
     </row>
     <row r="11" spans="1:15" ht="17">
       <c r="A11" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B11" s="3">
         <v>2024</v>
       </c>
       <c r="C11" s="4">
-        <v>1219</v>
+        <v>1799</v>
       </c>
       <c r="D11" s="4">
-        <v>570</v>
+        <v>671</v>
       </c>
       <c r="E11" s="4">
         <v>649</v>
@@ -10829,7 +10878,7 @@
         <v>0.53200000000000003</v>
       </c>
       <c r="G11" s="4">
-        <v>509</v>
+        <v>610</v>
       </c>
       <c r="H11" s="4">
         <v>710</v>
@@ -10838,7 +10887,7 @@
         <v>0.58199999999999996</v>
       </c>
       <c r="J11" s="4">
-        <v>376</v>
+        <v>505</v>
       </c>
       <c r="K11" s="4">
         <v>843</v>
@@ -10847,7 +10896,7 @@
         <v>0.69199999999999995</v>
       </c>
       <c r="M11" s="4">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="N11" s="4">
         <v>1039</v>
@@ -10858,16 +10907,16 @@
     </row>
     <row r="12" spans="1:15" ht="17">
       <c r="A12" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B12" s="3">
         <v>2024</v>
       </c>
       <c r="C12" s="4">
-        <v>899</v>
+        <v>1919</v>
       </c>
       <c r="D12" s="4">
-        <v>381</v>
+        <v>703</v>
       </c>
       <c r="E12" s="4">
         <v>518</v>
@@ -10876,7 +10925,7 @@
         <v>0.57599999999999996</v>
       </c>
       <c r="G12" s="4">
-        <v>356</v>
+        <v>640</v>
       </c>
       <c r="H12" s="4">
         <v>543</v>
@@ -10885,7 +10934,7 @@
         <v>0.60399999999999998</v>
       </c>
       <c r="J12" s="4">
-        <v>266</v>
+        <v>535</v>
       </c>
       <c r="K12" s="4">
         <v>633</v>
@@ -10894,7 +10943,7 @@
         <v>0.70399999999999996</v>
       </c>
       <c r="M12" s="4">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="N12" s="4">
         <v>799</v>
@@ -10914,7 +10963,7 @@
         <v>759</v>
       </c>
       <c r="D13" s="4">
-        <v>280</v>
+        <v>231</v>
       </c>
       <c r="E13" s="4">
         <v>479</v>
@@ -10923,7 +10972,7 @@
         <v>0.63100000000000001</v>
       </c>
       <c r="G13" s="4">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="H13" s="4">
         <v>525</v>
@@ -10932,7 +10981,7 @@
         <v>0.69199999999999995</v>
       </c>
       <c r="J13" s="4">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K13" s="4">
         <v>619</v>
@@ -10941,7 +10990,7 @@
         <v>0.81599999999999995</v>
       </c>
       <c r="M13" s="4">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N13" s="4">
         <v>684</v>
@@ -10961,7 +11010,7 @@
         <v>699</v>
       </c>
       <c r="D14" s="4">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="E14" s="4">
         <v>448</v>
@@ -10970,7 +11019,7 @@
         <v>0.64100000000000001</v>
       </c>
       <c r="G14" s="4">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="H14" s="4">
         <v>491</v>
@@ -10979,7 +11028,7 @@
         <v>0.70199999999999996</v>
       </c>
       <c r="J14" s="4">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="K14" s="4">
         <v>575</v>
@@ -10988,7 +11037,7 @@
         <v>0.82299999999999995</v>
       </c>
       <c r="M14" s="4">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N14" s="4">
         <v>634</v>
@@ -11008,7 +11057,7 @@
         <v>1059</v>
       </c>
       <c r="D15" s="4">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="E15" s="4">
         <v>723</v>
@@ -11017,7 +11066,7 @@
         <v>0.68300000000000005</v>
       </c>
       <c r="G15" s="4">
-        <v>316</v>
+        <v>275</v>
       </c>
       <c r="H15" s="4">
         <v>743</v>
@@ -11026,7 +11075,7 @@
         <v>0.70199999999999996</v>
       </c>
       <c r="J15" s="4">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="K15" s="4">
         <v>834</v>
@@ -11035,7 +11084,7 @@
         <v>0.78800000000000003</v>
       </c>
       <c r="M15" s="4">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="N15" s="4">
         <v>914</v>
@@ -11055,7 +11104,7 @@
         <v>1179</v>
       </c>
       <c r="D16" s="4">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="E16" s="4">
         <v>828</v>
@@ -11064,7 +11113,7 @@
         <v>0.70199999999999996</v>
       </c>
       <c r="G16" s="4">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="H16" s="4">
         <v>848</v>
@@ -11073,7 +11122,7 @@
         <v>0.71899999999999997</v>
       </c>
       <c r="J16" s="4">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="K16" s="4">
         <v>939</v>
@@ -11082,7 +11131,7 @@
         <v>0.79600000000000004</v>
       </c>
       <c r="M16" s="4">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="N16" s="4">
         <v>1014</v>
@@ -11102,7 +11151,7 @@
         <v>999</v>
       </c>
       <c r="D17" s="4">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="E17" s="4">
         <v>714</v>
@@ -11111,7 +11160,7 @@
         <v>0.71499999999999997</v>
       </c>
       <c r="G17" s="4">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="H17" s="4">
         <v>736</v>
@@ -11120,7 +11169,7 @@
         <v>0.73699999999999999</v>
       </c>
       <c r="J17" s="4">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="K17" s="4">
         <v>806</v>
@@ -11129,7 +11178,7 @@
         <v>0.80700000000000005</v>
       </c>
       <c r="M17" s="4">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="N17" s="4">
         <v>874</v>
@@ -11149,7 +11198,7 @@
         <v>1399</v>
       </c>
       <c r="D18" s="4">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="E18" s="4">
         <v>1028</v>
@@ -11158,7 +11207,7 @@
         <v>0.73499999999999999</v>
       </c>
       <c r="G18" s="4">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="H18" s="4">
         <v>1048</v>
@@ -11176,7 +11225,7 @@
         <v>0.81399999999999995</v>
       </c>
       <c r="M18" s="4">
-        <v>185</v>
+        <v>70</v>
       </c>
       <c r="N18" s="4">
         <v>1214</v>
@@ -11196,7 +11245,7 @@
         <v>499</v>
       </c>
       <c r="D19" s="4">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E19" s="4">
         <v>363</v>
@@ -11205,7 +11254,7 @@
         <v>0.72699999999999998</v>
       </c>
       <c r="G19" s="4">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="H19" s="4">
         <v>383</v>
@@ -11214,7 +11263,7 @@
         <v>0.76800000000000002</v>
       </c>
       <c r="J19" s="4">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K19" s="4">
         <v>429</v>
@@ -11223,7 +11272,7 @@
         <v>0.86</v>
       </c>
       <c r="M19" s="4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N19" s="4">
         <v>469</v>
@@ -11243,7 +11292,7 @@
         <v>999</v>
       </c>
       <c r="D20" s="4">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E20" s="4">
         <v>789</v>
@@ -11252,7 +11301,7 @@
         <v>0.79</v>
       </c>
       <c r="G20" s="4">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H20" s="4">
         <v>816</v>
@@ -11261,7 +11310,7 @@
         <v>0.81699999999999995</v>
       </c>
       <c r="J20" s="4">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K20" s="4">
         <v>868</v>
@@ -11270,7 +11319,7 @@
         <v>0.86899999999999999</v>
       </c>
       <c r="M20" s="4">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="N20" s="4">
         <v>944</v>
@@ -11281,16 +11330,16 @@
     </row>
     <row r="21" spans="1:15" ht="17">
       <c r="A21" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B21" s="3">
         <v>2022</v>
       </c>
       <c r="C21" s="4">
-        <v>899</v>
+        <v>1099</v>
       </c>
       <c r="D21" s="4">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="E21" s="4">
         <v>711</v>
@@ -11299,7 +11348,7 @@
         <v>0.79100000000000004</v>
       </c>
       <c r="G21" s="4">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="H21" s="4">
         <v>737</v>
@@ -11308,7 +11357,7 @@
         <v>0.82</v>
       </c>
       <c r="J21" s="4">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="K21" s="4">
         <v>802</v>
@@ -11317,7 +11366,7 @@
         <v>0.89200000000000002</v>
       </c>
       <c r="M21" s="4">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="N21" s="4">
         <v>854</v>
@@ -11328,16 +11377,16 @@
     </row>
     <row r="22" spans="1:15" ht="17">
       <c r="A22" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B22" s="3">
         <v>2022</v>
       </c>
       <c r="C22" s="4">
-        <v>1099</v>
+        <v>599</v>
       </c>
       <c r="D22" s="4">
-        <v>220</v>
+        <v>126</v>
       </c>
       <c r="E22" s="4">
         <v>879</v>
@@ -11346,7 +11395,7 @@
         <v>0.8</v>
       </c>
       <c r="G22" s="4">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="H22" s="4">
         <v>905</v>
@@ -11355,7 +11404,7 @@
         <v>0.82299999999999995</v>
       </c>
       <c r="J22" s="4">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="K22" s="4">
         <v>958</v>
@@ -11364,7 +11413,7 @@
         <v>0.872</v>
       </c>
       <c r="M22" s="4">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="N22" s="4">
         <v>1044</v>
@@ -11375,16 +11424,16 @@
     </row>
     <row r="23" spans="1:15" ht="17">
       <c r="A23" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B23" s="3">
         <v>2022</v>
       </c>
       <c r="C23" s="4">
-        <v>599</v>
+        <v>699</v>
       </c>
       <c r="D23" s="4">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E23" s="4">
         <v>459</v>
@@ -11393,7 +11442,7 @@
         <v>0.76600000000000001</v>
       </c>
       <c r="G23" s="4">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H23" s="4">
         <v>494</v>
@@ -11402,7 +11451,7 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="J23" s="4">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="K23" s="4">
         <v>522</v>
@@ -11422,16 +11471,16 @@
     </row>
     <row r="24" spans="1:15" ht="17">
       <c r="A24" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B24" s="3">
         <v>2022</v>
       </c>
       <c r="C24" s="4">
-        <v>699</v>
+        <v>899</v>
       </c>
       <c r="D24" s="4">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E24" s="4">
         <v>537</v>
@@ -11440,7 +11489,7 @@
         <v>0.76800000000000002</v>
       </c>
       <c r="G24" s="4">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="H24" s="4">
         <v>578</v>
@@ -11458,7 +11507,7 @@
         <v>0.877</v>
       </c>
       <c r="M24" s="4">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N24" s="4">
         <v>673</v>
@@ -11478,7 +11527,7 @@
         <v>749</v>
       </c>
       <c r="D25" s="4">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E25" s="4">
         <v>603</v>
@@ -11487,7 +11536,7 @@
         <v>0.80500000000000005</v>
       </c>
       <c r="G25" s="4">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="H25" s="4">
         <v>625</v>
@@ -11496,7 +11545,7 @@
         <v>0.83399999999999996</v>
       </c>
       <c r="J25" s="4">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="K25" s="4">
         <v>674</v>
@@ -11505,7 +11554,7 @@
         <v>0.9</v>
       </c>
       <c r="M25" s="4">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N25" s="4">
         <v>724</v>
@@ -11525,7 +11574,7 @@
         <v>449</v>
       </c>
       <c r="D26" s="4">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="E26" s="4">
         <v>357</v>
@@ -11534,7 +11583,7 @@
         <v>0.79500000000000004</v>
       </c>
       <c r="G26" s="4">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H26" s="4">
         <v>375</v>
@@ -11543,7 +11592,7 @@
         <v>0.83499999999999996</v>
       </c>
       <c r="J26" s="4">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K26" s="4">
         <v>405</v>
@@ -11552,7 +11601,7 @@
         <v>0.90200000000000002</v>
       </c>
       <c r="M26" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N26" s="4">
         <v>434</v>
@@ -11572,7 +11621,7 @@
         <v>699</v>
       </c>
       <c r="D27" s="4">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E27" s="4">
         <v>586</v>
@@ -11581,7 +11630,7 @@
         <v>0.83799999999999997</v>
       </c>
       <c r="G27" s="4">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H27" s="4">
         <v>602</v>
@@ -11590,7 +11639,7 @@
         <v>0.86099999999999999</v>
       </c>
       <c r="J27" s="4">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="K27" s="4">
         <v>640</v>
@@ -11599,7 +11648,7 @@
         <v>0.91600000000000004</v>
       </c>
       <c r="M27" s="4">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="N27" s="4">
         <v>674</v>
@@ -11619,7 +11668,7 @@
         <v>599</v>
       </c>
       <c r="D28" s="4">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E28" s="4">
         <v>502</v>
@@ -11628,7 +11677,7 @@
         <v>0.83799999999999997</v>
       </c>
       <c r="G28" s="4">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H28" s="4">
         <v>518</v>
@@ -11637,7 +11686,7 @@
         <v>0.86499999999999999</v>
       </c>
       <c r="J28" s="4">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="K28" s="4">
         <v>550</v>
@@ -11646,7 +11695,7 @@
         <v>0.91800000000000004</v>
       </c>
       <c r="M28" s="4">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="N28" s="4">
         <v>583</v>
@@ -11657,16 +11706,16 @@
     </row>
     <row r="29" spans="1:15" ht="17">
       <c r="A29" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B29" s="3">
         <v>2021</v>
       </c>
       <c r="C29" s="4">
-        <v>899</v>
+        <v>1099</v>
       </c>
       <c r="D29" s="4">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="E29" s="4">
         <v>773</v>
@@ -11675,7 +11724,7 @@
         <v>0.86</v>
       </c>
       <c r="G29" s="4">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="H29" s="4">
         <v>789</v>
@@ -11684,7 +11733,7 @@
         <v>0.878</v>
       </c>
       <c r="J29" s="4">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="K29" s="4">
         <v>833</v>
@@ -11704,16 +11753,16 @@
     </row>
     <row r="30" spans="1:15" ht="17">
       <c r="A30" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B30" s="3">
         <v>2021</v>
       </c>
       <c r="C30" s="4">
-        <v>999</v>
+        <v>899</v>
       </c>
       <c r="D30" s="4">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="E30" s="4">
         <v>862</v>
@@ -11722,7 +11771,7 @@
         <v>0.86299999999999999</v>
       </c>
       <c r="G30" s="4">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="H30" s="4">
         <v>878</v>
@@ -11731,7 +11780,7 @@
         <v>0.879</v>
       </c>
       <c r="J30" s="4">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="K30" s="4">
         <v>926</v>
@@ -11751,16 +11800,16 @@
     </row>
     <row r="31" spans="1:15" ht="17">
       <c r="A31" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B31" s="3">
         <v>2021</v>
       </c>
       <c r="C31" s="4">
-        <v>1099</v>
+        <v>999</v>
       </c>
       <c r="D31" s="4">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E31" s="4">
         <v>953</v>
@@ -11769,7 +11818,7 @@
         <v>0.86699999999999999</v>
       </c>
       <c r="G31" s="4">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="H31" s="4">
         <v>970</v>
@@ -11778,7 +11827,7 @@
         <v>0.88300000000000001</v>
       </c>
       <c r="J31" s="4">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K31" s="4">
         <v>1021</v>
@@ -11901,7 +11950,7 @@
         <v>999</v>
       </c>
       <c r="D34" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E34" s="4">
         <v>950</v>
@@ -11910,7 +11959,7 @@
         <v>0.95099999999999996</v>
       </c>
       <c r="G34" s="4">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H34" s="4">
         <v>958</v>
@@ -11919,7 +11968,7 @@
         <v>0.95899999999999996</v>
       </c>
       <c r="J34" s="4">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K34" s="4">
         <v>975</v>
@@ -11928,7 +11977,7 @@
         <v>0.97599999999999998</v>
       </c>
       <c r="M34" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N34" s="4">
         <v>992</v>
@@ -11948,7 +11997,7 @@
         <v>479</v>
       </c>
       <c r="D35" s="4">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E35" s="4">
         <v>451</v>
@@ -12004,7 +12053,7 @@
         <v>0.95099999999999996</v>
       </c>
       <c r="G36" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H36" s="4">
         <v>866</v>
@@ -12051,7 +12100,7 @@
         <v>0.94399999999999995</v>
       </c>
       <c r="G37" s="4">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H37" s="4">
         <v>869</v>
@@ -12060,7 +12109,7 @@
         <v>0.96699999999999997</v>
       </c>
       <c r="J37" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K37" s="4">
         <v>882</v>
@@ -12069,7 +12118,7 @@
         <v>0.98099999999999998</v>
       </c>
       <c r="M37" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N37" s="4">
         <v>894</v>
@@ -12136,7 +12185,7 @@
         <v>799</v>
       </c>
       <c r="D39" s="4">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E39" s="4">
         <v>769</v>
@@ -12174,16 +12223,16 @@
     </row>
     <row r="40" spans="1:15" ht="17">
       <c r="A40" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B40" s="3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C40" s="4">
-        <v>899</v>
+        <v>399</v>
       </c>
       <c r="D40" s="4">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E40" s="4">
         <v>875</v>
@@ -12192,7 +12241,7 @@
         <v>0.97299999999999998</v>
       </c>
       <c r="G40" s="4">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H40" s="4">
         <v>881</v>
@@ -12201,7 +12250,7 @@
         <v>0.98</v>
       </c>
       <c r="J40" s="4">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K40" s="4">
         <v>888</v>
@@ -12210,7 +12259,7 @@
         <v>0.98799999999999999</v>
       </c>
       <c r="M40" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N40" s="4">
         <v>896</v>
@@ -12221,16 +12270,16 @@
     </row>
     <row r="41" spans="1:15" ht="17">
       <c r="A41" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B41" s="3">
         <v>2018</v>
       </c>
       <c r="C41" s="4">
-        <v>999</v>
+        <v>899</v>
       </c>
       <c r="D41" s="4">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E41" s="4">
         <v>968</v>
@@ -12239,7 +12288,7 @@
         <v>0.96899999999999997</v>
       </c>
       <c r="G41" s="4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H41" s="4">
         <v>979</v>
@@ -12248,7 +12297,7 @@
         <v>0.98</v>
       </c>
       <c r="J41" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K41" s="4">
         <v>986</v>
@@ -12257,7 +12306,7 @@
         <v>0.98699999999999999</v>
       </c>
       <c r="M41" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N41" s="4">
         <v>995</v>
@@ -12268,16 +12317,16 @@
     </row>
     <row r="42" spans="1:15" ht="17">
       <c r="A42" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B42" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C42" s="4">
-        <v>399</v>
+        <v>999</v>
       </c>
       <c r="D42" s="4">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E42" s="4">
         <v>384</v>
@@ -12286,7 +12335,7 @@
         <v>0.96199999999999997</v>
       </c>
       <c r="G42" s="4">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H42" s="4">
         <v>391</v>
@@ -12295,7 +12344,7 @@
         <v>0.98</v>
       </c>
       <c r="J42" s="4">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="K42" s="4">
         <v>394</v>
@@ -12304,7 +12353,7 @@
         <v>0.98699999999999999</v>
       </c>
       <c r="M42" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N42" s="4">
         <v>397</v>
@@ -12362,16 +12411,16 @@
     </row>
     <row r="44" spans="1:15" ht="17">
       <c r="A44" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B44" s="3">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C44" s="4">
-        <v>899</v>
+        <v>649</v>
       </c>
       <c r="D44" s="4">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E44" s="4">
         <v>877</v>
@@ -12380,7 +12429,7 @@
         <v>0.97599999999999998</v>
       </c>
       <c r="G44" s="4">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H44" s="4">
         <v>882</v>
@@ -12389,7 +12438,7 @@
         <v>0.98099999999999998</v>
       </c>
       <c r="J44" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K44" s="4">
         <v>888</v>
@@ -12398,7 +12447,7 @@
         <v>0.98799999999999999</v>
       </c>
       <c r="M44" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N44" s="4">
         <v>896</v>
@@ -12409,16 +12458,16 @@
     </row>
     <row r="45" spans="1:15" ht="17">
       <c r="A45" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B45" s="3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C45" s="4">
-        <v>649</v>
+        <v>899</v>
       </c>
       <c r="D45" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E45" s="4">
         <v>648</v>
@@ -12427,7 +12476,7 @@
         <v>0.998</v>
       </c>
       <c r="G45" s="4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H45" s="4">
         <v>638</v>
@@ -12436,7 +12485,7 @@
         <v>0.98299999999999998</v>
       </c>
       <c r="J45" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K45" s="4">
         <v>641</v>
@@ -12445,7 +12494,7 @@
         <v>0.98799999999999999</v>
       </c>
       <c r="M45" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N45" s="4">
         <v>648</v>
@@ -12465,7 +12514,7 @@
         <v>799</v>
       </c>
       <c r="D46" s="4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E46" s="4">
         <v>782</v>
@@ -12474,7 +12523,7 @@
         <v>0.97899999999999998</v>
       </c>
       <c r="G46" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H46" s="4">
         <v>787</v>
@@ -12483,7 +12532,7 @@
         <v>0.98499999999999999</v>
       </c>
       <c r="J46" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K46" s="4">
         <v>792</v>
@@ -12687,6 +12736,438 @@
       </c>
       <c r="O50" s="5">
         <v>0.999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C24F08B-1B2E-F54D-BD62-9E139B0FFC07}">
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="17">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" ht="17">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3">
+        <v>2024</v>
+      </c>
+      <c r="C3" s="6">
+        <v>999.99</v>
+      </c>
+      <c r="D3" s="6">
+        <v>260</v>
+      </c>
+      <c r="G3" s="6">
+        <v>230</v>
+      </c>
+      <c r="J3" s="6">
+        <v>165</v>
+      </c>
+      <c r="M3" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4">
+        <v>2024</v>
+      </c>
+      <c r="C4" s="6">
+        <v>699.99</v>
+      </c>
+      <c r="D4" s="6">
+        <v>190</v>
+      </c>
+      <c r="G4" s="6">
+        <v>160</v>
+      </c>
+      <c r="J4" s="6">
+        <v>100</v>
+      </c>
+      <c r="M4" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5">
+        <v>2023</v>
+      </c>
+      <c r="C5" s="6">
+        <v>999.99</v>
+      </c>
+      <c r="D5" s="6">
+        <v>228</v>
+      </c>
+      <c r="G5" s="6">
+        <v>193</v>
+      </c>
+      <c r="J5" s="6">
+        <v>116</v>
+      </c>
+      <c r="M5" s="6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6">
+        <v>2023</v>
+      </c>
+      <c r="C6" s="6">
+        <v>699.99</v>
+      </c>
+      <c r="D6" s="6">
+        <v>116</v>
+      </c>
+      <c r="G6" s="6">
+        <v>101</v>
+      </c>
+      <c r="J6" s="6">
+        <v>46</v>
+      </c>
+      <c r="M6" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="6">
+        <v>999</v>
+      </c>
+      <c r="D7" s="6">
+        <v>160</v>
+      </c>
+      <c r="G7" s="6">
+        <v>130</v>
+      </c>
+      <c r="J7" s="6">
+        <v>90</v>
+      </c>
+      <c r="M7" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="6">
+        <v>699</v>
+      </c>
+      <c r="D8" s="6">
+        <v>90</v>
+      </c>
+      <c r="G8" s="6">
+        <v>80</v>
+      </c>
+      <c r="J8" s="6">
+        <v>40</v>
+      </c>
+      <c r="M8" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1400</v>
+      </c>
+      <c r="D9" s="6">
+        <v>125</v>
+      </c>
+      <c r="G9" s="6">
+        <v>105</v>
+      </c>
+      <c r="J9" s="6">
+        <v>65</v>
+      </c>
+      <c r="M9" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10">
+        <v>2019</v>
+      </c>
+      <c r="C10" s="6">
+        <v>499</v>
+      </c>
+      <c r="D10" s="6">
+        <v>19</v>
+      </c>
+      <c r="G10" s="6">
+        <v>14</v>
+      </c>
+      <c r="J10" s="6">
+        <v>9</v>
+      </c>
+      <c r="M10" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B11">
+        <v>2020</v>
+      </c>
+      <c r="C11" s="6">
+        <v>444.99</v>
+      </c>
+      <c r="D11" s="6">
+        <v>16</v>
+      </c>
+      <c r="G11" s="6">
+        <v>12</v>
+      </c>
+      <c r="J11" s="6">
+        <v>7</v>
+      </c>
+      <c r="M11" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B12">
+        <v>2019</v>
+      </c>
+      <c r="C12" s="6">
+        <v>299</v>
+      </c>
+      <c r="D12" s="6">
+        <v>7</v>
+      </c>
+      <c r="G12" s="6">
+        <v>5</v>
+      </c>
+      <c r="J12" s="6">
+        <v>3</v>
+      </c>
+      <c r="M12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>259</v>
+      </c>
+      <c r="B13">
+        <v>2020</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1499</v>
+      </c>
+      <c r="D13" s="6">
+        <v>30</v>
+      </c>
+      <c r="G13" s="6">
+        <v>23</v>
+      </c>
+      <c r="J13" s="6">
+        <v>14</v>
+      </c>
+      <c r="M13" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>260</v>
+      </c>
+      <c r="B14">
+        <v>2020</v>
+      </c>
+      <c r="C14" s="6">
+        <v>399</v>
+      </c>
+      <c r="D14" s="6">
+        <v>12</v>
+      </c>
+      <c r="G14" s="6">
+        <v>6</v>
+      </c>
+      <c r="J14" s="6">
+        <v>1</v>
+      </c>
+      <c r="M14" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>261</v>
+      </c>
+      <c r="B15">
+        <v>2019</v>
+      </c>
+      <c r="C15" s="6">
+        <v>449</v>
+      </c>
+      <c r="D15" s="6">
+        <v>12</v>
+      </c>
+      <c r="G15" s="6">
+        <v>6</v>
+      </c>
+      <c r="J15" s="6">
+        <v>1</v>
+      </c>
+      <c r="M15" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B16">
+        <v>2018</v>
+      </c>
+      <c r="C16" s="6">
+        <v>249</v>
+      </c>
+      <c r="D16" s="6">
+        <v>5</v>
+      </c>
+      <c r="G16" s="6">
+        <v>3</v>
+      </c>
+      <c r="J16" s="6">
+        <v>1</v>
+      </c>
+      <c r="M16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>263</v>
+      </c>
+      <c r="B17">
+        <v>2018</v>
+      </c>
+      <c r="C17" s="6">
+        <v>480</v>
+      </c>
+      <c r="D17" s="6">
+        <v>7</v>
+      </c>
+      <c r="G17" s="6">
+        <v>4</v>
+      </c>
+      <c r="J17" s="6">
+        <v>1</v>
+      </c>
+      <c r="M17" s="6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
